--- a/total_data.xlsx
+++ b/total_data.xlsx
@@ -1543,7 +1543,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="$0.00"/>
-    <numFmt numFmtId="165" formatCode="0.00%"/>
+    <numFmt numFmtId="165" formatCode="0%"/>
   </numFmts>
   <fonts count="2">
     <font>

--- a/total_data.xlsx
+++ b/total_data.xlsx
@@ -52,24 +52,24 @@
     <t>AXON</t>
   </si>
   <si>
+    <t>NFLX</t>
+  </si>
+  <si>
     <t>CRWD</t>
   </si>
   <si>
-    <t>NFLX</t>
-  </si>
-  <si>
     <t>CNP</t>
   </si>
   <si>
     <t>T</t>
   </si>
   <si>
+    <t>TPR</t>
+  </si>
+  <si>
     <t>EXE</t>
   </si>
   <si>
-    <t>TPR</t>
-  </si>
-  <si>
     <t>DRI</t>
   </si>
   <si>
@@ -79,15 +79,15 @@
     <t>HWM</t>
   </si>
   <si>
+    <t>ETR</t>
+  </si>
+  <si>
+    <t>CAH</t>
+  </si>
+  <si>
     <t>RSG</t>
   </si>
   <si>
-    <t>CAH</t>
-  </si>
-  <si>
-    <t>ETR</t>
-  </si>
-  <si>
     <t>CVS</t>
   </si>
   <si>
@@ -103,21 +103,21 @@
     <t>FFIV</t>
   </si>
   <si>
+    <t>CME</t>
+  </si>
+  <si>
     <t>WRB</t>
   </si>
   <si>
-    <t>CME</t>
+    <t>GILD</t>
+  </si>
+  <si>
+    <t>V</t>
   </si>
   <si>
     <t>ROL</t>
   </si>
   <si>
-    <t>GILD</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
     <t>AJG</t>
   </si>
   <si>
@@ -130,6 +130,9 @@
     <t>GRMN</t>
   </si>
   <si>
+    <t>TPL</t>
+  </si>
+  <si>
     <t>EXC</t>
   </si>
   <si>
@@ -139,18 +142,15 @@
     <t>FOXA</t>
   </si>
   <si>
-    <t>TPL</t>
+    <t>TMUS</t>
+  </si>
+  <si>
+    <t>GL</t>
   </si>
   <si>
     <t>MO</t>
   </si>
   <si>
-    <t>GL</t>
-  </si>
-  <si>
-    <t>TMUS</t>
-  </si>
-  <si>
     <t>CPRT</t>
   </si>
   <si>
@@ -160,43 +160,46 @@
     <t>BRO</t>
   </si>
   <si>
+    <t>ORLY</t>
+  </si>
+  <si>
     <t>AZO</t>
   </si>
   <si>
     <t>ABT</t>
   </si>
   <si>
-    <t>ORLY</t>
-  </si>
-  <si>
     <t>BRK/B</t>
   </si>
   <si>
     <t>PGR</t>
   </si>
   <si>
+    <t>WELL</t>
+  </si>
+  <si>
     <t>NI</t>
   </si>
   <si>
+    <t>WTW</t>
+  </si>
+  <si>
     <t>BSX</t>
   </si>
   <si>
-    <t>WTW</t>
-  </si>
-  <si>
     <t>AEE</t>
   </si>
   <si>
-    <t>WELL</t>
-  </si>
-  <si>
     <t>DE</t>
   </si>
   <si>
+    <t>WMB</t>
+  </si>
+  <si>
     <t>IBM</t>
   </si>
   <si>
-    <t>WMB</t>
+    <t>NRG</t>
   </si>
   <si>
     <t>EVRG</t>
@@ -205,15 +208,12 @@
     <t>WM</t>
   </si>
   <si>
-    <t>NRG</t>
+    <t>TJX</t>
   </si>
   <si>
     <t>DPZ</t>
   </si>
   <si>
-    <t>TJX</t>
-  </si>
-  <si>
     <t>VRSK</t>
   </si>
   <si>
@@ -223,15 +223,15 @@
     <t>WEC</t>
   </si>
   <si>
+    <t>DG</t>
+  </si>
+  <si>
     <t>WMT</t>
   </si>
   <si>
     <t>LKQ</t>
   </si>
   <si>
-    <t>DG</t>
-  </si>
-  <si>
     <t>BR</t>
   </si>
   <si>
@@ -256,39 +256,39 @@
     <t>AEP</t>
   </si>
   <si>
+    <t>DLTR</t>
+  </si>
+  <si>
+    <t>XEL</t>
+  </si>
+  <si>
+    <t>GEV</t>
+  </si>
+  <si>
+    <t>NWS</t>
+  </si>
+  <si>
     <t>LYV</t>
   </si>
   <si>
-    <t>XEL</t>
-  </si>
-  <si>
-    <t>DLTR</t>
-  </si>
-  <si>
-    <t>NWS</t>
-  </si>
-  <si>
-    <t>GEV</t>
-  </si>
-  <si>
     <t>DGX</t>
   </si>
   <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>KO</t>
+  </si>
+  <si>
+    <t>PODD</t>
+  </si>
+  <si>
+    <t>YUM</t>
+  </si>
+  <si>
     <t>GDDY</t>
   </si>
   <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>KO</t>
-  </si>
-  <si>
-    <t>PODD</t>
-  </si>
-  <si>
-    <t>YUM</t>
-  </si>
-  <si>
     <t>JBL</t>
   </si>
   <si>
@@ -301,57 +301,57 @@
     <t>CSGP</t>
   </si>
   <si>
+    <t>MMM</t>
+  </si>
+  <si>
     <t>AWK</t>
   </si>
   <si>
     <t>AIG</t>
   </si>
   <si>
-    <t>MMM</t>
+    <t>VZ</t>
   </si>
   <si>
     <t>PNW</t>
   </si>
   <si>
-    <t>VZ</t>
+    <t>FAST</t>
   </si>
   <si>
     <t>FI</t>
   </si>
   <si>
-    <t>FAST</t>
+    <t>DFS</t>
   </si>
   <si>
     <t>EBAY</t>
   </si>
   <si>
-    <t>DFS</t>
-  </si>
-  <si>
     <t>MCD</t>
   </si>
   <si>
+    <t>SCHW</t>
+  </si>
+  <si>
     <t>HIG</t>
   </si>
   <si>
     <t>BKNG</t>
   </si>
   <si>
-    <t>SCHW</t>
-  </si>
-  <si>
     <t>MMC</t>
   </si>
   <si>
+    <t>WBD</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
     <t>DTE</t>
   </si>
   <si>
-    <t>CI</t>
-  </si>
-  <si>
-    <t>WBD</t>
-  </si>
-  <si>
     <t>PAYX</t>
   </si>
   <si>
@@ -367,22 +367,25 @@
     <t>KMB</t>
   </si>
   <si>
+    <t>ROP</t>
+  </si>
+  <si>
+    <t>PARA</t>
+  </si>
+  <si>
+    <t>JPM</t>
+  </si>
+  <si>
+    <t>TSN</t>
+  </si>
+  <si>
     <t>ALL</t>
   </si>
   <si>
-    <t>ROP</t>
-  </si>
-  <si>
-    <t>PARA</t>
-  </si>
-  <si>
-    <t>TSN</t>
-  </si>
-  <si>
     <t>NOC</t>
   </si>
   <si>
-    <t>JPM</t>
+    <t>RTX</t>
   </si>
   <si>
     <t>WSM</t>
@@ -391,132 +394,129 @@
     <t>DUK</t>
   </si>
   <si>
-    <t>RTX</t>
+    <t>MOH</t>
+  </si>
+  <si>
+    <t>ADP</t>
   </si>
   <si>
     <t>CHD</t>
   </si>
   <si>
-    <t>ADP</t>
-  </si>
-  <si>
-    <t>MOH</t>
+    <t>CBOE</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>ELV</t>
+  </si>
+  <si>
+    <t>EW</t>
   </si>
   <si>
     <t>CMS</t>
   </si>
   <si>
-    <t>ELV</t>
-  </si>
-  <si>
-    <t>CBOE</t>
-  </si>
-  <si>
-    <t>EW</t>
+    <t>BKR</t>
   </si>
   <si>
     <t>VRTX</t>
   </si>
   <si>
-    <t>GE</t>
-  </si>
-  <si>
-    <t>BKR</t>
+    <t>RL</t>
+  </si>
+  <si>
+    <t>KDP</t>
   </si>
   <si>
     <t>TRV</t>
   </si>
   <si>
-    <t>KDP</t>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>SNA</t>
   </si>
   <si>
     <t>KVUE</t>
   </si>
   <si>
-    <t>MA</t>
-  </si>
-  <si>
-    <t>RL</t>
-  </si>
-  <si>
-    <t>SNA</t>
-  </si>
-  <si>
     <t>BK</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>K</t>
   </si>
   <si>
+    <t>CDNS</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
     <t>CSCO</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>MAA</t>
   </si>
   <si>
+    <t>JCI</t>
+  </si>
+  <si>
+    <t>VICI</t>
+  </si>
+  <si>
     <t>LNT</t>
   </si>
   <si>
-    <t>CDNS</t>
-  </si>
-  <si>
-    <t>BA</t>
-  </si>
-  <si>
-    <t>JCI</t>
+    <t>MOS</t>
+  </si>
+  <si>
+    <t>COF</t>
   </si>
   <si>
     <t>AIZ</t>
   </si>
   <si>
-    <t>VICI</t>
-  </si>
-  <si>
-    <t>COF</t>
-  </si>
-  <si>
     <t>CHTR</t>
   </si>
   <si>
-    <t>MOS</t>
+    <t>WFC</t>
   </si>
   <si>
     <t>NWSA</t>
   </si>
   <si>
+    <t>TDG</t>
+  </si>
+  <si>
+    <t>AVGO</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>REG</t>
+  </si>
+  <si>
     <t>SJM</t>
   </si>
   <si>
     <t>CB</t>
   </si>
   <si>
-    <t>WFC</t>
-  </si>
-  <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>TDG</t>
-  </si>
-  <si>
-    <t>REG</t>
+    <t>AON</t>
+  </si>
+  <si>
+    <t>EA</t>
   </si>
   <si>
     <t>CTAS</t>
   </si>
   <si>
-    <t>AVGO</t>
-  </si>
-  <si>
-    <t>EA</t>
-  </si>
-  <si>
-    <t>AON</t>
-  </si>
-  <si>
     <t>WAT</t>
   </si>
   <si>
@@ -526,24 +526,24 @@
     <t>SO</t>
   </si>
   <si>
+    <t>TDY</t>
+  </si>
+  <si>
+    <t>CTVA</t>
+  </si>
+  <si>
     <t>INVH</t>
   </si>
   <si>
-    <t>CTVA</t>
+    <t>AFL</t>
+  </si>
+  <si>
+    <t>SYK</t>
   </si>
   <si>
     <t>STE</t>
   </si>
   <si>
-    <t>SYK</t>
-  </si>
-  <si>
-    <t>TDY</t>
-  </si>
-  <si>
-    <t>AFL</t>
-  </si>
-  <si>
     <t>CL</t>
   </si>
   <si>
@@ -553,202 +553,211 @@
     <t>GS</t>
   </si>
   <si>
+    <t>WDAY</t>
+  </si>
+  <si>
+    <t>HRL</t>
+  </si>
+  <si>
+    <t>CNC</t>
+  </si>
+  <si>
     <t>LH</t>
   </si>
   <si>
-    <t>HRL</t>
-  </si>
-  <si>
-    <t>CNC</t>
-  </si>
-  <si>
-    <t>WDAY</t>
-  </si>
-  <si>
     <t>EXPE</t>
   </si>
   <si>
+    <t>ROST</t>
+  </si>
+  <si>
     <t>NDAQ</t>
   </si>
   <si>
-    <t>ROST</t>
-  </si>
-  <si>
     <t>MDLZ</t>
   </si>
   <si>
     <t>INTU</t>
   </si>
   <si>
+    <t>OTIS</t>
+  </si>
+  <si>
     <t>SYY</t>
   </si>
   <si>
-    <t>OTIS</t>
+    <t>IP</t>
   </si>
   <si>
     <t>ICE</t>
   </si>
   <si>
-    <t>IP</t>
+    <t>KLAC</t>
+  </si>
+  <si>
+    <t>RCL</t>
+  </si>
+  <si>
+    <t>FICO</t>
   </si>
   <si>
     <t>JNJ</t>
   </si>
   <si>
-    <t>FICO</t>
-  </si>
-  <si>
-    <t>RCL</t>
-  </si>
-  <si>
     <t>AME</t>
   </si>
   <si>
+    <t>ZBH</t>
+  </si>
+  <si>
+    <t>TRMB</t>
+  </si>
+  <si>
+    <t>BMY</t>
+  </si>
+  <si>
+    <t>LIN</t>
+  </si>
+  <si>
     <t>AXP</t>
   </si>
   <si>
-    <t>ZBH</t>
-  </si>
-  <si>
-    <t>BMY</t>
-  </si>
-  <si>
-    <t>TRMB</t>
-  </si>
-  <si>
-    <t>LIN</t>
+    <t>SPGI</t>
   </si>
   <si>
     <t>MKC</t>
   </si>
   <si>
-    <t>SPGI</t>
-  </si>
-  <si>
     <t>UBER</t>
   </si>
   <si>
-    <t>KLAC</t>
+    <t>ULTA</t>
+  </si>
+  <si>
+    <t>FE</t>
+  </si>
+  <si>
+    <t>ISRG</t>
   </si>
   <si>
     <t>CTSH</t>
   </si>
   <si>
-    <t>ISRG</t>
-  </si>
-  <si>
-    <t>ULTA</t>
+    <t>UNP</t>
+  </si>
+  <si>
+    <t>FDS</t>
+  </si>
+  <si>
+    <t>JKHY</t>
   </si>
   <si>
     <t>CINF</t>
   </si>
   <si>
-    <t>FE</t>
-  </si>
-  <si>
-    <t>JKHY</t>
-  </si>
-  <si>
-    <t>UNP</t>
-  </si>
-  <si>
-    <t>FDS</t>
-  </si>
-  <si>
     <t>TYL</t>
   </si>
   <si>
     <t>HON</t>
   </si>
   <si>
+    <t>CPT</t>
+  </si>
+  <si>
     <t>UDR</t>
   </si>
   <si>
-    <t>CPT</t>
+    <t>SBAC</t>
   </si>
   <si>
     <t>VMC</t>
   </si>
   <si>
+    <t>DXCM</t>
+  </si>
+  <si>
     <t>GOOG</t>
   </si>
   <si>
+    <t>HES</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
     <t>ANSS</t>
   </si>
   <si>
-    <t>SBAC</t>
-  </si>
-  <si>
-    <t>DXCM</t>
-  </si>
-  <si>
     <t>AMZN</t>
   </si>
   <si>
+    <t>CCI</t>
+  </si>
+  <si>
     <t>PANW</t>
   </si>
   <si>
-    <t>CCI</t>
-  </si>
-  <si>
-    <t>HES</t>
+    <t>ECL</t>
+  </si>
+  <si>
+    <t>APH</t>
+  </si>
+  <si>
+    <t>VST</t>
   </si>
   <si>
     <t>GOOGL</t>
   </si>
   <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>APH</t>
-  </si>
-  <si>
-    <t>ECL</t>
-  </si>
-  <si>
-    <t>VST</t>
+    <t>PEG</t>
+  </si>
+  <si>
+    <t>MSCI</t>
   </si>
   <si>
     <t>ERIE</t>
   </si>
   <si>
-    <t>PEG</t>
-  </si>
-  <si>
-    <t>MSCI</t>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>SHW</t>
+  </si>
+  <si>
+    <t>AMP</t>
+  </si>
+  <si>
+    <t>ESS</t>
+  </si>
+  <si>
+    <t>RJF</t>
   </si>
   <si>
     <t>ACGL</t>
   </si>
   <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>AMP</t>
-  </si>
-  <si>
-    <t>ESS</t>
-  </si>
-  <si>
-    <t>SHW</t>
+    <t>MCO</t>
   </si>
   <si>
     <t>EG</t>
   </si>
   <si>
-    <t>RJF</t>
-  </si>
-  <si>
-    <t>MCO</t>
+    <t>GD</t>
+  </si>
+  <si>
+    <t>MSI</t>
   </si>
   <si>
     <t>DVA</t>
   </si>
   <si>
-    <t>MSI</t>
-  </si>
-  <si>
-    <t>GD</t>
+    <t>TSCO</t>
+  </si>
+  <si>
+    <t>MDT</t>
+  </si>
+  <si>
+    <t>EMR</t>
   </si>
   <si>
     <t>HSY</t>
@@ -757,21 +766,15 @@
     <t>ADSK</t>
   </si>
   <si>
-    <t>TSCO</t>
-  </si>
-  <si>
-    <t>MDT</t>
-  </si>
-  <si>
-    <t>EMR</t>
-  </si>
-  <si>
     <t>HCA</t>
   </si>
   <si>
     <t>STLD</t>
   </si>
   <si>
+    <t>TSLA</t>
+  </si>
+  <si>
     <t>ABBV</t>
   </si>
   <si>
@@ -781,90 +784,90 @@
     <t>CPAY</t>
   </si>
   <si>
-    <t>TSLA</t>
+    <t>ITW</t>
+  </si>
+  <si>
+    <t>WAB</t>
+  </si>
+  <si>
+    <t>CVX</t>
+  </si>
+  <si>
+    <t>HSIC</t>
+  </si>
+  <si>
+    <t>GWW</t>
+  </si>
+  <si>
+    <t>KMX</t>
   </si>
   <si>
     <t>UAL</t>
   </si>
   <si>
-    <t>HSIC</t>
-  </si>
-  <si>
-    <t>ITW</t>
-  </si>
-  <si>
-    <t>CVX</t>
-  </si>
-  <si>
-    <t>WAB</t>
-  </si>
-  <si>
-    <t>KMX</t>
-  </si>
-  <si>
-    <t>GWW</t>
-  </si>
-  <si>
     <t>LII</t>
   </si>
   <si>
     <t>EQR</t>
   </si>
   <si>
+    <t>PH</t>
+  </si>
+  <si>
     <t>SOLV</t>
   </si>
   <si>
+    <t>BAC</t>
+  </si>
+  <si>
+    <t>IDXX</t>
+  </si>
+  <si>
+    <t>GLW</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
     <t>AMGN</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>PH</t>
-  </si>
-  <si>
-    <t>CF</t>
-  </si>
-  <si>
-    <t>IDXX</t>
-  </si>
-  <si>
-    <t>BAC</t>
-  </si>
-  <si>
-    <t>GLW</t>
-  </si>
-  <si>
     <t>INCY</t>
   </si>
   <si>
     <t>EXPD</t>
   </si>
   <si>
+    <t>HLT</t>
+  </si>
+  <si>
     <t>ES</t>
   </si>
   <si>
     <t>BLK</t>
   </si>
   <si>
-    <t>HLT</t>
-  </si>
-  <si>
     <t>SW</t>
   </si>
   <si>
+    <t>EOG</t>
+  </si>
+  <si>
+    <t>AVB</t>
+  </si>
+  <si>
+    <t>OKE</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
     <t>META</t>
   </si>
   <si>
-    <t>AVB</t>
-  </si>
-  <si>
-    <t>STT</t>
-  </si>
-  <si>
-    <t>EOG</t>
-  </si>
-  <si>
     <t>CBRE</t>
   </si>
   <si>
@@ -874,148 +877,151 @@
     <t>CLX</t>
   </si>
   <si>
-    <t>OKE</t>
+    <t>MET</t>
+  </si>
+  <si>
+    <t>APO</t>
   </si>
   <si>
     <t>JNPR</t>
   </si>
   <si>
-    <t>APO</t>
-  </si>
-  <si>
-    <t>MET</t>
-  </si>
-  <si>
     <t>NTRS</t>
   </si>
   <si>
+    <t>SPG</t>
+  </si>
+  <si>
     <t>MSFT</t>
   </si>
   <si>
-    <t>SPG</t>
-  </si>
-  <si>
     <t>PWR</t>
   </si>
   <si>
     <t>LHX</t>
   </si>
   <si>
+    <t>HD</t>
+  </si>
+  <si>
     <t>XOM</t>
   </si>
   <si>
-    <t>HD</t>
-  </si>
-  <si>
     <t>DIS</t>
   </si>
   <si>
+    <t>BEN</t>
+  </si>
+  <si>
+    <t>HBAN</t>
+  </si>
+  <si>
+    <t>DOV</t>
+  </si>
+  <si>
     <t>CRM</t>
   </si>
   <si>
-    <t>BEN</t>
-  </si>
-  <si>
-    <t>HBAN</t>
-  </si>
-  <si>
     <t>FTV</t>
   </si>
   <si>
-    <t>DOV</t>
+    <t>MLM</t>
+  </si>
+  <si>
+    <t>KIM</t>
   </si>
   <si>
     <t>VLTO</t>
   </si>
   <si>
+    <t>PSA</t>
+  </si>
+  <si>
     <t>KEYS</t>
   </si>
   <si>
     <t>PFG</t>
   </si>
   <si>
-    <t>MLM</t>
-  </si>
-  <si>
-    <t>KIM</t>
-  </si>
-  <si>
-    <t>PSA</t>
-  </si>
-  <si>
     <t>CCL</t>
   </si>
   <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>CFG</t>
+  </si>
+  <si>
+    <t>PLD</t>
+  </si>
+  <si>
     <t>UHS</t>
   </si>
   <si>
-    <t>PLD</t>
-  </si>
-  <si>
     <t>SYF</t>
   </si>
   <si>
-    <t>F</t>
+    <t>CMI</t>
+  </si>
+  <si>
+    <t>NSC</t>
+  </si>
+  <si>
+    <t>BG</t>
   </si>
   <si>
     <t>GM</t>
   </si>
   <si>
-    <t>CFG</t>
+    <t>EQIX</t>
+  </si>
+  <si>
+    <t>GPN</t>
+  </si>
+  <si>
+    <t>HII</t>
   </si>
   <si>
     <t>LUV</t>
   </si>
   <si>
-    <t>NSC</t>
-  </si>
-  <si>
-    <t>CMI</t>
-  </si>
-  <si>
-    <t>BG</t>
-  </si>
-  <si>
     <t>CAG</t>
   </si>
   <si>
-    <t>GPN</t>
-  </si>
-  <si>
-    <t>EQIX</t>
+    <t>PCAR</t>
   </si>
   <si>
     <t>TEL</t>
   </si>
   <si>
-    <t>HII</t>
-  </si>
-  <si>
     <t>DAY</t>
   </si>
   <si>
-    <t>PCAR</t>
-  </si>
-  <si>
     <t>LMT</t>
   </si>
   <si>
     <t>PCG</t>
   </si>
   <si>
+    <t>TFC</t>
+  </si>
+  <si>
+    <t>NOW</t>
+  </si>
+  <si>
+    <t>AAPL</t>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>ROK</t>
+  </si>
+  <si>
     <t>BDX</t>
   </si>
   <si>
-    <t>NOW</t>
-  </si>
-  <si>
-    <t>TT</t>
-  </si>
-  <si>
-    <t>AAPL</t>
-  </si>
-  <si>
-    <t>TFC</t>
+    <t>INTC</t>
   </si>
   <si>
     <t>ABNB</t>
@@ -1024,114 +1030,111 @@
     <t>AMCR</t>
   </si>
   <si>
-    <t>ROK</t>
-  </si>
-  <si>
-    <t>INTC</t>
+    <t>XYL</t>
   </si>
   <si>
     <t>MAR</t>
   </si>
   <si>
+    <t>DOC</t>
+  </si>
+  <si>
+    <t>COP</t>
+  </si>
+  <si>
+    <t>SRE</t>
+  </si>
+  <si>
     <t>LRCX</t>
   </si>
   <si>
-    <t>XYL</t>
-  </si>
-  <si>
-    <t>DOC</t>
-  </si>
-  <si>
     <t>GIS</t>
   </si>
   <si>
     <t>SBUX</t>
   </si>
   <si>
-    <t>COP</t>
-  </si>
-  <si>
-    <t>SRE</t>
+    <t>MTB</t>
   </si>
   <si>
     <t>LDOS</t>
   </si>
   <si>
+    <t>EXR</t>
+  </si>
+  <si>
     <t>KHC</t>
   </si>
   <si>
-    <t>EXR</t>
-  </si>
-  <si>
-    <t>MTB</t>
-  </si>
-  <si>
     <t>CHRW</t>
   </si>
   <si>
+    <t>SNPS</t>
+  </si>
+  <si>
+    <t>KEY</t>
+  </si>
+  <si>
     <t>RMD</t>
   </si>
   <si>
     <t>J</t>
   </si>
   <si>
-    <t>SNPS</t>
+    <t>MPC</t>
   </si>
   <si>
     <t>PKG</t>
   </si>
   <si>
-    <t>KEY</t>
+    <t>CSX</t>
   </si>
   <si>
     <t>APD</t>
   </si>
   <si>
-    <t>CSX</t>
-  </si>
-  <si>
-    <t>MPC</t>
+    <t>LULU</t>
+  </si>
+  <si>
+    <t>SLB</t>
   </si>
   <si>
     <t>ADM</t>
   </si>
   <si>
+    <t>RF</t>
+  </si>
+  <si>
     <t>LLY</t>
   </si>
   <si>
     <t>FRT</t>
   </si>
   <si>
-    <t>RF</t>
+    <t>POOL</t>
   </si>
   <si>
     <t>PEP</t>
   </si>
   <si>
-    <t>SLB</t>
-  </si>
-  <si>
-    <t>LULU</t>
-  </si>
-  <si>
-    <t>POOL</t>
+    <t>AOS</t>
+  </si>
+  <si>
+    <t>VLO</t>
+  </si>
+  <si>
+    <t>ZTS</t>
   </si>
   <si>
     <t>NEE</t>
   </si>
   <si>
-    <t>ZTS</t>
-  </si>
-  <si>
-    <t>AOS</t>
-  </si>
-  <si>
-    <t>VLO</t>
-  </si>
-  <si>
     <t>PNC</t>
   </si>
   <si>
+    <t>DLR</t>
+  </si>
+  <si>
     <t>EFX</t>
   </si>
   <si>
@@ -1144,27 +1147,24 @@
     <t>PNR</t>
   </si>
   <si>
-    <t>DLR</t>
+    <t>CMCSA</t>
   </si>
   <si>
     <t>CMG</t>
   </si>
   <si>
-    <t>CMCSA</t>
-  </si>
-  <si>
     <t>RVTY</t>
   </si>
   <si>
     <t>LOW</t>
   </si>
   <si>
+    <t>WY</t>
+  </si>
+  <si>
     <t>CARR</t>
   </si>
   <si>
-    <t>WY</t>
-  </si>
-  <si>
     <t>PRU</t>
   </si>
   <si>
@@ -1177,18 +1177,18 @@
     <t>USB</t>
   </si>
   <si>
+    <t>QCOM</t>
+  </si>
+  <si>
     <t>CPB</t>
   </si>
   <si>
+    <t>TMO</t>
+  </si>
+  <si>
     <t>IPG</t>
   </si>
   <si>
-    <t>TMO</t>
-  </si>
-  <si>
-    <t>QCOM</t>
-  </si>
-  <si>
     <t>TXT</t>
   </si>
   <si>
@@ -1198,61 +1198,67 @@
     <t>MTD</t>
   </si>
   <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>ETN</t>
+  </si>
+  <si>
     <t>HAS</t>
   </si>
   <si>
-    <t>ETN</t>
-  </si>
-  <si>
-    <t>IT</t>
-  </si>
-  <si>
     <t>PPG</t>
   </si>
   <si>
+    <t>DHR</t>
+  </si>
+  <si>
+    <t>PFE</t>
+  </si>
+  <si>
+    <t>BAX</t>
+  </si>
+  <si>
+    <t>MHK</t>
+  </si>
+  <si>
     <t>MKTX</t>
   </si>
   <si>
-    <t>DHR</t>
-  </si>
-  <si>
-    <t>PFE</t>
+    <t>BX</t>
+  </si>
+  <si>
+    <t>CEG</t>
   </si>
   <si>
     <t>EPAM</t>
   </si>
   <si>
-    <t>MHK</t>
-  </si>
-  <si>
-    <t>BAX</t>
-  </si>
-  <si>
-    <t>BX</t>
+    <t>MTCH</t>
+  </si>
+  <si>
+    <t>TROW</t>
   </si>
   <si>
     <t>NUE</t>
   </si>
   <si>
-    <t>CEG</t>
-  </si>
-  <si>
-    <t>TROW</t>
-  </si>
-  <si>
-    <t>MTCH</t>
-  </si>
-  <si>
     <t>PTC</t>
   </si>
   <si>
     <t>FIS</t>
   </si>
   <si>
+    <t>STZ</t>
+  </si>
+  <si>
+    <t>HPE</t>
+  </si>
+  <si>
     <t>HST</t>
   </si>
   <si>
-    <t>STZ</t>
+    <t>PSX</t>
   </si>
   <si>
     <t>HAL</t>
@@ -1261,36 +1267,30 @@
     <t>HUBB</t>
   </si>
   <si>
-    <t>HPE</t>
-  </si>
-  <si>
-    <t>PSX</t>
+    <t>ALGN</t>
   </si>
   <si>
     <t>NVR</t>
   </si>
   <si>
-    <t>ALGN</t>
-  </si>
-  <si>
     <t>ADI</t>
   </si>
   <si>
+    <t>OXY</t>
+  </si>
+  <si>
+    <t>CAT</t>
+  </si>
+  <si>
+    <t>DVN</t>
+  </si>
+  <si>
+    <t>ODFL</t>
+  </si>
+  <si>
     <t>DAL</t>
   </si>
   <si>
-    <t>DVN</t>
-  </si>
-  <si>
-    <t>OXY</t>
-  </si>
-  <si>
-    <t>CAT</t>
-  </si>
-  <si>
-    <t>ODFL</t>
-  </si>
-  <si>
     <t>WYNN</t>
   </si>
   <si>
@@ -1309,21 +1309,21 @@
     <t>PYPL</t>
   </si>
   <si>
+    <t>AMAT</t>
+  </si>
+  <si>
+    <t>BALL</t>
+  </si>
+  <si>
     <t>MRK</t>
   </si>
   <si>
-    <t>BALL</t>
-  </si>
-  <si>
-    <t>AMAT</t>
+    <t>APTV</t>
   </si>
   <si>
     <t>KKR</t>
   </si>
   <si>
-    <t>APTV</t>
-  </si>
-  <si>
     <t>TECH</t>
   </si>
   <si>
@@ -1333,48 +1333,48 @@
     <t>AKAM</t>
   </si>
   <si>
+    <t>BXP</t>
+  </si>
+  <si>
+    <t>NDSN</t>
+  </si>
+  <si>
+    <t>URI</t>
+  </si>
+  <si>
     <t>ANET</t>
   </si>
   <si>
-    <t>BXP</t>
-  </si>
-  <si>
     <t>NVDA</t>
   </si>
   <si>
-    <t>NDSN</t>
-  </si>
-  <si>
-    <t>URI</t>
-  </si>
-  <si>
     <t>IVZ</t>
   </si>
   <si>
     <t>FCX</t>
   </si>
   <si>
+    <t>OMC</t>
+  </si>
+  <si>
     <t>ADBE</t>
   </si>
   <si>
-    <t>OMC</t>
-  </si>
-  <si>
     <t>COO</t>
   </si>
   <si>
     <t>DD</t>
   </si>
   <si>
+    <t>JBHT</t>
+  </si>
+  <si>
     <t>MGM</t>
   </si>
   <si>
     <t>FANG</t>
   </si>
   <si>
-    <t>JBHT</t>
-  </si>
-  <si>
     <t>TXN</t>
   </si>
   <si>
@@ -1393,18 +1393,18 @@
     <t>GEHC</t>
   </si>
   <si>
+    <t>SMCI</t>
+  </si>
+  <si>
+    <t>HOLX</t>
+  </si>
+  <si>
+    <t>IQV</t>
+  </si>
+  <si>
     <t>STX</t>
   </si>
   <si>
-    <t>SMCI</t>
-  </si>
-  <si>
-    <t>HOLX</t>
-  </si>
-  <si>
-    <t>IQV</t>
-  </si>
-  <si>
     <t>NXPI</t>
   </si>
   <si>
@@ -1423,15 +1423,15 @@
     <t>CDW</t>
   </si>
   <si>
+    <t>NTAP</t>
+  </si>
+  <si>
     <t>WST</t>
   </si>
   <si>
     <t>DELL</t>
   </si>
   <si>
-    <t>NTAP</t>
-  </si>
-  <si>
     <t>WDC</t>
   </si>
   <si>
@@ -1447,13 +1447,13 @@
     <t>VTRS</t>
   </si>
   <si>
+    <t>IRM</t>
+  </si>
+  <si>
+    <t>BBY</t>
+  </si>
+  <si>
     <t>LYB</t>
-  </si>
-  <si>
-    <t>IRM</t>
-  </si>
-  <si>
-    <t>BBY</t>
   </si>
   <si>
     <t>MU</t>
@@ -1934,10 +1934,10 @@
         <v>44.86</v>
       </c>
       <c r="C2" s="2">
-        <v>92.66</v>
+        <v>92.77</v>
       </c>
       <c r="D2" s="3">
-        <v>106.5537226928221</v>
+        <v>106.8</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1948,10 +1948,10 @@
         <v>37.48</v>
       </c>
       <c r="C3" s="2">
-        <v>51.71</v>
+        <v>51.89</v>
       </c>
       <c r="D3" s="3">
-        <v>37.96691568836714</v>
+        <v>38.45</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1962,10 +1962,10 @@
         <v>181.26</v>
       </c>
       <c r="C4" s="2">
-        <v>249.255</v>
+        <v>249.185</v>
       </c>
       <c r="D4" s="3">
-        <v>37.51241310824231</v>
+        <v>37.47</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1976,10 +1976,10 @@
         <v>507.41</v>
       </c>
       <c r="C5" s="2">
-        <v>695</v>
+        <v>695.04</v>
       </c>
       <c r="D5" s="3">
-        <v>36.97010307246605</v>
+        <v>36.98</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1990,10 +1990,10 @@
         <v>164.63</v>
       </c>
       <c r="C6" s="2">
-        <v>218.03</v>
+        <v>217.98</v>
       </c>
       <c r="D6" s="3">
-        <v>32.43637247160299</v>
+        <v>32.41</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2004,10 +2004,10 @@
         <v>161.79</v>
       </c>
       <c r="C7" s="2">
-        <v>213.83</v>
+        <v>213.91</v>
       </c>
       <c r="D7" s="3">
-        <v>32.16515235799495</v>
+        <v>32.21</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2021,7 +2021,7 @@
         <v>150.52</v>
       </c>
       <c r="D8" s="3">
-        <v>30.60303687635576</v>
+        <v>30.6</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2032,10 +2032,10 @@
         <v>444.52</v>
       </c>
       <c r="C9" s="2">
-        <v>576.8200000000001</v>
+        <v>577.84</v>
       </c>
       <c r="D9" s="3">
-        <v>29.76244038513454</v>
+        <v>29.99</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2043,13 +2043,13 @@
         <v>12</v>
       </c>
       <c r="B10" s="2">
-        <v>300.62</v>
+        <v>754.6799999999999</v>
       </c>
       <c r="C10" s="2">
-        <v>389.0364</v>
+        <v>975.1212</v>
       </c>
       <c r="D10" s="3">
-        <v>29.41134987692103</v>
+        <v>29.21</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2057,13 +2057,13 @@
         <v>13</v>
       </c>
       <c r="B11" s="2">
-        <v>754.6799999999999</v>
+        <v>300.62</v>
       </c>
       <c r="C11" s="2">
-        <v>975.9400000000001</v>
+        <v>388.2</v>
       </c>
       <c r="D11" s="3">
-        <v>29.31838660094346</v>
+        <v>29.13</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2074,10 +2074,10 @@
         <v>29.31</v>
       </c>
       <c r="C12" s="2">
-        <v>37.16</v>
+        <v>37.17</v>
       </c>
       <c r="D12" s="3">
-        <v>26.7826680313886</v>
+        <v>26.82</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2088,10 +2088,10 @@
         <v>21.83</v>
       </c>
       <c r="C13" s="2">
-        <v>27.395</v>
+        <v>27.44</v>
       </c>
       <c r="D13" s="3">
-        <v>25.49244159413652</v>
+        <v>25.7</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2099,13 +2099,13 @@
         <v>16</v>
       </c>
       <c r="B14" s="2">
-        <v>84.79000000000001</v>
+        <v>50.49</v>
       </c>
       <c r="C14" s="2">
-        <v>106.1</v>
+        <v>63.395</v>
       </c>
       <c r="D14" s="3">
-        <v>25.13268074065336</v>
+        <v>25.56</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2113,13 +2113,13 @@
         <v>17</v>
       </c>
       <c r="B15" s="2">
-        <v>50.49</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C15" s="2">
-        <v>63.13</v>
+        <v>106.2873</v>
       </c>
       <c r="D15" s="3">
-        <v>25.03466032877797</v>
+        <v>25.35</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2130,10 +2130,10 @@
         <v>159.92</v>
       </c>
       <c r="C16" s="2">
-        <v>199.1</v>
+        <v>199.95</v>
       </c>
       <c r="D16" s="3">
-        <v>24.49974987493747</v>
+        <v>25.03</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2144,10 +2144,10 @@
         <v>129.86</v>
       </c>
       <c r="C17" s="2">
-        <v>160.23</v>
+        <v>160.175</v>
       </c>
       <c r="D17" s="3">
-        <v>23.38672416448481</v>
+        <v>23.34</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2158,10 +2158,10 @@
         <v>101.39</v>
       </c>
       <c r="C18" s="2">
-        <v>124.6923</v>
+        <v>124.835</v>
       </c>
       <c r="D18" s="3">
-        <v>22.98283854423514</v>
+        <v>23.12</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2169,13 +2169,13 @@
         <v>21</v>
       </c>
       <c r="B19" s="2">
-        <v>199.83</v>
+        <v>67.69</v>
       </c>
       <c r="C19" s="2">
-        <v>244.925</v>
+        <v>83.045</v>
       </c>
       <c r="D19" s="3">
-        <v>22.56668167942751</v>
+        <v>22.68</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2186,10 +2186,10 @@
         <v>110.89</v>
       </c>
       <c r="C20" s="2">
-        <v>135.905</v>
+        <v>135.965</v>
       </c>
       <c r="D20" s="3">
-        <v>22.55839119848499</v>
+        <v>22.61</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2197,13 +2197,13 @@
         <v>23</v>
       </c>
       <c r="B21" s="2">
-        <v>67.69</v>
+        <v>199.83</v>
       </c>
       <c r="C21" s="2">
-        <v>82.825</v>
+        <v>244.86</v>
       </c>
       <c r="D21" s="3">
-        <v>22.35928497562418</v>
+        <v>22.53</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2214,10 +2214,10 @@
         <v>56.49</v>
       </c>
       <c r="C22" s="2">
-        <v>69.075</v>
+        <v>69.19</v>
       </c>
       <c r="D22" s="3">
-        <v>22.27827934147637</v>
+        <v>22.48</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2228,10 +2228,10 @@
         <v>234.47</v>
       </c>
       <c r="C23" s="2">
-        <v>285.91</v>
+        <v>286.06</v>
       </c>
       <c r="D23" s="3">
-        <v>21.93884078986652</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2242,10 +2242,10 @@
         <v>80.34</v>
       </c>
       <c r="C24" s="2">
-        <v>97.59999999999999</v>
+        <v>97.15000000000001</v>
       </c>
       <c r="D24" s="3">
-        <v>21.48369429922827</v>
+        <v>20.92</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2256,10 +2256,10 @@
         <v>57.37</v>
       </c>
       <c r="C25" s="2">
-        <v>69.395</v>
+        <v>69.36</v>
       </c>
       <c r="D25" s="3">
-        <v>20.96043228168032</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2270,10 +2270,10 @@
         <v>216.87</v>
       </c>
       <c r="C26" s="2">
-        <v>261.63</v>
+        <v>262.04</v>
       </c>
       <c r="D26" s="3">
-        <v>20.63909254392032</v>
+        <v>20.83</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2281,13 +2281,13 @@
         <v>29</v>
       </c>
       <c r="B27" s="2">
-        <v>57.66</v>
+        <v>220.34</v>
       </c>
       <c r="C27" s="2">
-        <v>69.21250000000001</v>
+        <v>264.63</v>
       </c>
       <c r="D27" s="3">
-        <v>20.03555324314951</v>
+        <v>20.1</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2295,13 +2295,13 @@
         <v>30</v>
       </c>
       <c r="B28" s="2">
-        <v>220.34</v>
+        <v>57.66</v>
       </c>
       <c r="C28" s="2">
-        <v>264.2</v>
+        <v>69.17</v>
       </c>
       <c r="D28" s="3">
-        <v>19.90560043569029</v>
+        <v>19.96</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2309,13 +2309,13 @@
         <v>31</v>
       </c>
       <c r="B29" s="2">
-        <v>46.54</v>
+        <v>89</v>
       </c>
       <c r="C29" s="2">
-        <v>55.507</v>
+        <v>106.07</v>
       </c>
       <c r="D29" s="3">
-        <v>19.26729694886119</v>
+        <v>19.18</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2323,13 +2323,13 @@
         <v>32</v>
       </c>
       <c r="B30" s="2">
-        <v>89</v>
+        <v>281.73</v>
       </c>
       <c r="C30" s="2">
-        <v>105.895</v>
+        <v>335.48</v>
       </c>
       <c r="D30" s="3">
-        <v>18.98314606741573</v>
+        <v>19.08</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2337,13 +2337,13 @@
         <v>33</v>
       </c>
       <c r="B31" s="2">
-        <v>281.73</v>
+        <v>46.54</v>
       </c>
       <c r="C31" s="2">
-        <v>335.02</v>
+        <v>55.415</v>
       </c>
       <c r="D31" s="3">
-        <v>18.91527348880132</v>
+        <v>19.07</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2354,10 +2354,10 @@
         <v>282.97</v>
       </c>
       <c r="C32" s="2">
-        <v>335.57</v>
+        <v>335.355</v>
       </c>
       <c r="D32" s="3">
-        <v>18.58854295508356</v>
+        <v>18.51</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2371,7 +2371,7 @@
         <v>181.42</v>
       </c>
       <c r="D33" s="3">
-        <v>17.89706264621783</v>
+        <v>17.9</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2385,7 +2385,7 @@
         <v>45.17</v>
       </c>
       <c r="D34" s="3">
-        <v>17.78357235984355</v>
+        <v>17.78</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2396,10 +2396,10 @@
         <v>162.3</v>
       </c>
       <c r="C35" s="2">
-        <v>190.83</v>
+        <v>191</v>
       </c>
       <c r="D35" s="3">
-        <v>17.57855822550832</v>
+        <v>17.68</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2407,13 +2407,13 @@
         <v>38</v>
       </c>
       <c r="B36" s="2">
-        <v>40.07</v>
+        <v>1098.01</v>
       </c>
       <c r="C36" s="2">
-        <v>47.05</v>
+        <v>1290</v>
       </c>
       <c r="D36" s="3">
-        <v>17.41951584726727</v>
+        <v>17.49</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2421,13 +2421,13 @@
         <v>39</v>
       </c>
       <c r="B37" s="2">
-        <v>9.26</v>
+        <v>40.07</v>
       </c>
       <c r="C37" s="2">
-        <v>10.87</v>
+        <v>47.0472</v>
       </c>
       <c r="D37" s="3">
-        <v>17.38660907127429</v>
+        <v>17.41</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2435,13 +2435,13 @@
         <v>40</v>
       </c>
       <c r="B38" s="2">
-        <v>41.71</v>
+        <v>9.26</v>
       </c>
       <c r="C38" s="2">
-        <v>48.78</v>
+        <v>10.865</v>
       </c>
       <c r="D38" s="3">
-        <v>16.95037161352194</v>
+        <v>17.33</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2449,13 +2449,13 @@
         <v>41</v>
       </c>
       <c r="B39" s="2">
-        <v>1098.01</v>
+        <v>41.71</v>
       </c>
       <c r="C39" s="2">
-        <v>1280</v>
+        <v>48.725</v>
       </c>
       <c r="D39" s="3">
-        <v>16.57453028660941</v>
+        <v>16.82</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2463,13 +2463,13 @@
         <v>42</v>
       </c>
       <c r="B40" s="2">
-        <v>49.71</v>
+        <v>226.36</v>
       </c>
       <c r="C40" s="2">
-        <v>57.94</v>
+        <v>264.11</v>
       </c>
       <c r="D40" s="3">
-        <v>16.55602494467913</v>
+        <v>16.68</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2480,10 +2480,10 @@
         <v>105.15</v>
       </c>
       <c r="C41" s="2">
-        <v>122.54</v>
+        <v>122.52</v>
       </c>
       <c r="D41" s="3">
-        <v>16.53827864954826</v>
+        <v>16.52</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2491,13 +2491,13 @@
         <v>44</v>
       </c>
       <c r="B42" s="2">
-        <v>226.36</v>
+        <v>49.71</v>
       </c>
       <c r="C42" s="2">
-        <v>263.615</v>
+        <v>57.88</v>
       </c>
       <c r="D42" s="3">
-        <v>16.45829651881958</v>
+        <v>16.44</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2508,10 +2508,10 @@
         <v>51.71</v>
       </c>
       <c r="C43" s="2">
-        <v>60</v>
+        <v>60.035</v>
       </c>
       <c r="D43" s="3">
-        <v>16.03171533552504</v>
+        <v>16.1</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2522,10 +2522,10 @@
         <v>48.42</v>
       </c>
       <c r="C44" s="2">
-        <v>56.04</v>
+        <v>56.125</v>
       </c>
       <c r="D44" s="3">
-        <v>15.73729863692688</v>
+        <v>15.91</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2536,10 +2536,10 @@
         <v>103.98</v>
       </c>
       <c r="C45" s="2">
-        <v>120.125</v>
+        <v>120.28</v>
       </c>
       <c r="D45" s="3">
-        <v>15.52702442777457</v>
+        <v>15.68</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2547,13 +2547,13 @@
         <v>48</v>
       </c>
       <c r="B46" s="2">
-        <v>3130.96</v>
+        <v>1195.22</v>
       </c>
       <c r="C46" s="2">
-        <v>3614.02</v>
+        <v>1382.6</v>
       </c>
       <c r="D46" s="3">
-        <v>15.42849477476557</v>
+        <v>15.68</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2561,13 +2561,13 @@
         <v>49</v>
       </c>
       <c r="B47" s="2">
-        <v>114.22</v>
+        <v>3130.96</v>
       </c>
       <c r="C47" s="2">
-        <v>131.785</v>
+        <v>3615.03</v>
       </c>
       <c r="D47" s="3">
-        <v>15.37821747504815</v>
+        <v>15.46</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2575,13 +2575,13 @@
         <v>50</v>
       </c>
       <c r="B48" s="2">
-        <v>1195.22</v>
+        <v>114.22</v>
       </c>
       <c r="C48" s="2">
-        <v>1377.8</v>
+        <v>131.605</v>
       </c>
       <c r="D48" s="3">
-        <v>15.27584879771088</v>
+        <v>15.22</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2592,10 +2592,10 @@
         <v>454.01</v>
       </c>
       <c r="C49" s="2">
-        <v>521.41</v>
+        <v>521.17</v>
       </c>
       <c r="D49" s="3">
-        <v>14.84548798484614</v>
+        <v>14.79</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2606,10 +2606,10 @@
         <v>243.78</v>
       </c>
       <c r="C50" s="2">
-        <v>278.98</v>
+        <v>278.12</v>
       </c>
       <c r="D50" s="3">
-        <v>14.43924850274839</v>
+        <v>14.09</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2617,13 +2617,13 @@
         <v>53</v>
       </c>
       <c r="B51" s="2">
-        <v>34.82</v>
+        <v>130.2</v>
       </c>
       <c r="C51" s="2">
-        <v>39.395</v>
+        <v>147.245</v>
       </c>
       <c r="D51" s="3">
-        <v>13.13900057438255</v>
+        <v>13.09</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2631,13 +2631,13 @@
         <v>54</v>
       </c>
       <c r="B52" s="2">
-        <v>84.73</v>
+        <v>34.82</v>
       </c>
       <c r="C52" s="2">
-        <v>95.80500000000001</v>
+        <v>39.365</v>
       </c>
       <c r="D52" s="3">
-        <v>13.07093119320194</v>
+        <v>13.05</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2648,10 +2648,10 @@
         <v>290.45</v>
       </c>
       <c r="C53" s="2">
-        <v>328.06</v>
+        <v>328.325</v>
       </c>
       <c r="D53" s="3">
-        <v>12.9488724393183</v>
+        <v>13.04</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2659,13 +2659,13 @@
         <v>56</v>
       </c>
       <c r="B54" s="2">
-        <v>87.8</v>
+        <v>84.73</v>
       </c>
       <c r="C54" s="2">
-        <v>99.13500000000001</v>
+        <v>95.755</v>
       </c>
       <c r="D54" s="3">
-        <v>12.91002277904329</v>
+        <v>13.01</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2673,13 +2673,13 @@
         <v>57</v>
       </c>
       <c r="B55" s="2">
-        <v>130.2</v>
+        <v>87.8</v>
       </c>
       <c r="C55" s="2">
-        <v>146.82</v>
+        <v>99.155</v>
       </c>
       <c r="D55" s="3">
-        <v>12.76497695852535</v>
+        <v>12.93</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2690,10 +2690,10 @@
         <v>407.93</v>
       </c>
       <c r="C56" s="2">
-        <v>459.185</v>
+        <v>460.335</v>
       </c>
       <c r="D56" s="3">
-        <v>12.56465570073297</v>
+        <v>12.85</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2701,13 +2701,13 @@
         <v>59</v>
       </c>
       <c r="B57" s="2">
-        <v>214.67</v>
+        <v>52.5</v>
       </c>
       <c r="C57" s="2">
-        <v>241.415</v>
+        <v>59.08</v>
       </c>
       <c r="D57" s="3">
-        <v>12.45865747426283</v>
+        <v>12.53</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2715,13 +2715,13 @@
         <v>60</v>
       </c>
       <c r="B58" s="2">
-        <v>52.5</v>
+        <v>214.67</v>
       </c>
       <c r="C58" s="2">
-        <v>58.92</v>
+        <v>241.42</v>
       </c>
       <c r="D58" s="3">
-        <v>12.22857142857143</v>
+        <v>12.46</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2729,13 +2729,13 @@
         <v>61</v>
       </c>
       <c r="B59" s="2">
-        <v>60.77</v>
+        <v>87.53</v>
       </c>
       <c r="C59" s="2">
-        <v>68.14</v>
+        <v>98.38</v>
       </c>
       <c r="D59" s="3">
-        <v>12.12769458614448</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2743,13 +2743,13 @@
         <v>62</v>
       </c>
       <c r="B60" s="2">
-        <v>206.8</v>
+        <v>60.77</v>
       </c>
       <c r="C60" s="2">
-        <v>231.815</v>
+        <v>68.23</v>
       </c>
       <c r="D60" s="3">
-        <v>12.09622823984525</v>
+        <v>12.28</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2757,13 +2757,13 @@
         <v>63</v>
       </c>
       <c r="B61" s="2">
-        <v>87.53</v>
+        <v>206.8</v>
       </c>
       <c r="C61" s="2">
-        <v>98.11</v>
+        <v>231.96</v>
       </c>
       <c r="D61" s="3">
-        <v>12.08728435964812</v>
+        <v>12.17</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2771,13 +2771,13 @@
         <v>64</v>
       </c>
       <c r="B62" s="2">
-        <v>413.81</v>
+        <v>113.82</v>
       </c>
       <c r="C62" s="2">
-        <v>463.52</v>
+        <v>127.5004</v>
       </c>
       <c r="D62" s="3">
-        <v>12.01275947898794</v>
+        <v>12.02</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2785,13 +2785,13 @@
         <v>65</v>
       </c>
       <c r="B63" s="2">
-        <v>113.82</v>
+        <v>413.81</v>
       </c>
       <c r="C63" s="2">
-        <v>127.48</v>
+        <v>463.52</v>
       </c>
       <c r="D63" s="3">
-        <v>12.00140572834301</v>
+        <v>12.01</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2802,10 +2802,10 @@
         <v>264.65</v>
       </c>
       <c r="C64" s="2">
-        <v>296.115</v>
+        <v>295.875</v>
       </c>
       <c r="D64" s="3">
-        <v>11.88928773852259</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2819,7 +2819,7 @@
         <v>157.29</v>
       </c>
       <c r="D65" s="3">
-        <v>11.77515633882888</v>
+        <v>11.78</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2830,10 +2830,10 @@
         <v>97.19</v>
       </c>
       <c r="C66" s="2">
-        <v>108.33</v>
+        <v>108.36</v>
       </c>
       <c r="D66" s="3">
-        <v>11.46208457660253</v>
+        <v>11.49</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2841,13 +2841,13 @@
         <v>69</v>
       </c>
       <c r="B67" s="2">
-        <v>82.51000000000001</v>
+        <v>80.38</v>
       </c>
       <c r="C67" s="2">
-        <v>91.84999999999999</v>
+        <v>89.38</v>
       </c>
       <c r="D67" s="3">
-        <v>11.31984001939158</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2855,13 +2855,13 @@
         <v>70</v>
       </c>
       <c r="B68" s="2">
-        <v>37.55</v>
+        <v>82.51000000000001</v>
       </c>
       <c r="C68" s="2">
-        <v>41.615</v>
+        <v>91.7216</v>
       </c>
       <c r="D68" s="3">
-        <v>10.82556591211719</v>
+        <v>11.16</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2869,13 +2869,13 @@
         <v>71</v>
       </c>
       <c r="B69" s="2">
-        <v>80.38</v>
+        <v>37.55</v>
       </c>
       <c r="C69" s="2">
-        <v>89.02</v>
+        <v>41.72</v>
       </c>
       <c r="D69" s="3">
-        <v>10.74894252301568</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2889,7 +2889,7 @@
         <v>236.55</v>
       </c>
       <c r="D70" s="3">
-        <v>10.52188945474934</v>
+        <v>10.52</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2900,10 +2900,10 @@
         <v>260.73</v>
       </c>
       <c r="C71" s="2">
-        <v>288.02</v>
+        <v>287.86</v>
       </c>
       <c r="D71" s="3">
-        <v>10.46676638668353</v>
+        <v>10.41</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2914,10 +2914,10 @@
         <v>53.37</v>
       </c>
       <c r="C72" s="2">
-        <v>58.805</v>
+        <v>58.77</v>
       </c>
       <c r="D72" s="3">
-        <v>10.18362375866592</v>
+        <v>10.12</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2928,10 +2928,10 @@
         <v>32.43</v>
       </c>
       <c r="C73" s="2">
-        <v>35.555</v>
+        <v>35.585</v>
       </c>
       <c r="D73" s="3">
-        <v>9.636139377119951</v>
+        <v>9.73</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2942,10 +2942,10 @@
         <v>23.85</v>
       </c>
       <c r="C74" s="2">
-        <v>26.08</v>
+        <v>26.16</v>
       </c>
       <c r="D74" s="3">
-        <v>9.350104821802921</v>
+        <v>9.69</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2956,10 +2956,10 @@
         <v>891.22</v>
       </c>
       <c r="C75" s="2">
-        <v>973.455</v>
+        <v>973.345</v>
       </c>
       <c r="D75" s="3">
-        <v>9.227239065550595</v>
+        <v>9.210000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2973,7 +2973,7 @@
         <v>27.215</v>
       </c>
       <c r="D76" s="3">
-        <v>9.078156312625254</v>
+        <v>9.08</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2984,10 +2984,10 @@
         <v>98.19</v>
       </c>
       <c r="C77" s="2">
-        <v>107.07</v>
+        <v>107.015</v>
       </c>
       <c r="D77" s="3">
-        <v>9.043690803544145</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2995,13 +2995,13 @@
         <v>80</v>
       </c>
       <c r="B78" s="2">
-        <v>116.32</v>
+        <v>66.45</v>
       </c>
       <c r="C78" s="2">
-        <v>126.61</v>
+        <v>72.36</v>
       </c>
       <c r="D78" s="3">
-        <v>8.84628610729024</v>
+        <v>8.890000000000001</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3012,10 +3012,10 @@
         <v>64.45999999999999</v>
       </c>
       <c r="C79" s="2">
-        <v>70.155</v>
+        <v>70.17</v>
       </c>
       <c r="D79" s="3">
-        <v>8.834936394663369</v>
+        <v>8.859999999999999</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3023,13 +3023,13 @@
         <v>82</v>
       </c>
       <c r="B80" s="2">
-        <v>66.45</v>
+        <v>293.54</v>
       </c>
       <c r="C80" s="2">
-        <v>72.2</v>
+        <v>318.87</v>
       </c>
       <c r="D80" s="3">
-        <v>8.653122648607974</v>
+        <v>8.630000000000001</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3040,10 +3040,10 @@
         <v>27.75</v>
       </c>
       <c r="C81" s="2">
-        <v>30.15</v>
+        <v>30.12</v>
       </c>
       <c r="D81" s="3">
-        <v>8.648648648648644</v>
+        <v>8.539999999999999</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3051,13 +3051,13 @@
         <v>84</v>
       </c>
       <c r="B82" s="2">
-        <v>293.54</v>
+        <v>116.32</v>
       </c>
       <c r="C82" s="2">
-        <v>318.495</v>
+        <v>126.13</v>
       </c>
       <c r="D82" s="3">
-        <v>8.501396743203646</v>
+        <v>8.43</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3068,10 +3068,10 @@
         <v>155.04</v>
       </c>
       <c r="C83" s="2">
-        <v>167.82</v>
+        <v>167.65</v>
       </c>
       <c r="D83" s="3">
-        <v>8.243034055727556</v>
+        <v>8.130000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3079,13 +3079,13 @@
         <v>86</v>
       </c>
       <c r="B84" s="2">
-        <v>160.53</v>
+        <v>79.56999999999999</v>
       </c>
       <c r="C84" s="2">
-        <v>173.55</v>
+        <v>86</v>
       </c>
       <c r="D84" s="3">
-        <v>8.110633526443662</v>
+        <v>8.08</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3093,13 +3093,13 @@
         <v>87</v>
       </c>
       <c r="B85" s="2">
-        <v>79.56999999999999</v>
+        <v>66.92</v>
       </c>
       <c r="C85" s="2">
-        <v>85.98</v>
+        <v>72.325</v>
       </c>
       <c r="D85" s="3">
-        <v>8.055799924594711</v>
+        <v>8.08</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3107,13 +3107,13 @@
         <v>88</v>
       </c>
       <c r="B86" s="2">
-        <v>66.92</v>
+        <v>233.63</v>
       </c>
       <c r="C86" s="2">
-        <v>72.2877</v>
+        <v>252.485</v>
       </c>
       <c r="D86" s="3">
-        <v>8.02106993424985</v>
+        <v>8.07</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3121,13 +3121,13 @@
         <v>89</v>
       </c>
       <c r="B87" s="2">
-        <v>233.63</v>
+        <v>133.04</v>
       </c>
       <c r="C87" s="2">
-        <v>252.155</v>
+        <v>143.7</v>
       </c>
       <c r="D87" s="3">
-        <v>7.929204297393317</v>
+        <v>8.01</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3135,13 +3135,13 @@
         <v>90</v>
       </c>
       <c r="B88" s="2">
-        <v>133.04</v>
+        <v>160.53</v>
       </c>
       <c r="C88" s="2">
-        <v>143.4275</v>
+        <v>173.14</v>
       </c>
       <c r="D88" s="3">
-        <v>7.807802164762491</v>
+        <v>7.86</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3152,10 +3152,10 @@
         <v>124.72</v>
       </c>
       <c r="C89" s="2">
-        <v>134.24</v>
+        <v>134.43</v>
       </c>
       <c r="D89" s="3">
-        <v>7.633098139833234</v>
+        <v>7.79</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3166,10 +3166,10 @@
         <v>55.77</v>
       </c>
       <c r="C90" s="2">
-        <v>60</v>
+        <v>60.0647</v>
       </c>
       <c r="D90" s="3">
-        <v>7.584722969338348</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3180,10 +3180,10 @@
         <v>104.6</v>
       </c>
       <c r="C91" s="2">
-        <v>112.34</v>
+        <v>112.445</v>
       </c>
       <c r="D91" s="3">
-        <v>7.399617590822189</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3194,10 +3194,10 @@
         <v>74.48</v>
       </c>
       <c r="C92" s="2">
-        <v>79.955</v>
+        <v>79.98999999999999</v>
       </c>
       <c r="D92" s="3">
-        <v>7.350966702470455</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3205,13 +3205,13 @@
         <v>95</v>
       </c>
       <c r="B93" s="2">
-        <v>137.66</v>
+        <v>124.75</v>
       </c>
       <c r="C93" s="2">
-        <v>147.34</v>
+        <v>133.725</v>
       </c>
       <c r="D93" s="3">
-        <v>7.031817521429614</v>
+        <v>7.19</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3219,13 +3219,13 @@
         <v>96</v>
       </c>
       <c r="B94" s="2">
-        <v>76.81999999999999</v>
+        <v>137.66</v>
       </c>
       <c r="C94" s="2">
-        <v>82.20999999999999</v>
+        <v>147.53</v>
       </c>
       <c r="D94" s="3">
-        <v>7.016401978651395</v>
+        <v>7.17</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3233,13 +3233,13 @@
         <v>97</v>
       </c>
       <c r="B95" s="2">
-        <v>124.75</v>
+        <v>76.81999999999999</v>
       </c>
       <c r="C95" s="2">
-        <v>133.445</v>
+        <v>82.19</v>
       </c>
       <c r="D95" s="3">
-        <v>6.969939879759514</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3247,13 +3247,13 @@
         <v>98</v>
       </c>
       <c r="B96" s="2">
-        <v>88.2</v>
+        <v>41.38</v>
       </c>
       <c r="C96" s="2">
-        <v>94.26000000000001</v>
+        <v>44.255</v>
       </c>
       <c r="D96" s="3">
-        <v>6.870748299319731</v>
+        <v>6.95</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3261,13 +3261,13 @@
         <v>99</v>
       </c>
       <c r="B97" s="2">
-        <v>41.38</v>
+        <v>88.2</v>
       </c>
       <c r="C97" s="2">
-        <v>44.185</v>
+        <v>94.3</v>
       </c>
       <c r="D97" s="3">
-        <v>6.778637022716287</v>
+        <v>6.92</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3275,13 +3275,13 @@
         <v>100</v>
       </c>
       <c r="B98" s="2">
-        <v>199.52</v>
+        <v>75.84999999999999</v>
       </c>
       <c r="C98" s="2">
-        <v>212.84</v>
+        <v>81.04000000000001</v>
       </c>
       <c r="D98" s="3">
-        <v>6.676022453889331</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3289,13 +3289,13 @@
         <v>101</v>
       </c>
       <c r="B99" s="2">
-        <v>75.84999999999999</v>
+        <v>199.52</v>
       </c>
       <c r="C99" s="2">
-        <v>80.86</v>
+        <v>212.74</v>
       </c>
       <c r="D99" s="3">
-        <v>6.605141727092954</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3303,13 +3303,13 @@
         <v>102</v>
       </c>
       <c r="B100" s="2">
-        <v>63.1</v>
+        <v>148.9</v>
       </c>
       <c r="C100" s="2">
-        <v>67.185</v>
+        <v>158.6815</v>
       </c>
       <c r="D100" s="3">
-        <v>6.473851030110936</v>
+        <v>6.57</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3317,13 +3317,13 @@
         <v>103</v>
       </c>
       <c r="B101" s="2">
-        <v>148.9</v>
+        <v>63.1</v>
       </c>
       <c r="C101" s="2">
-        <v>158.48</v>
+        <v>67.18000000000001</v>
       </c>
       <c r="D101" s="3">
-        <v>6.433848220282059</v>
+        <v>6.47</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3334,10 +3334,10 @@
         <v>292.61</v>
       </c>
       <c r="C102" s="2">
-        <v>310.76</v>
+        <v>310.67</v>
       </c>
       <c r="D102" s="3">
-        <v>6.202795529886189</v>
+        <v>6.17</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3345,13 +3345,13 @@
         <v>105</v>
       </c>
       <c r="B103" s="2">
-        <v>112.26</v>
+        <v>71.81999999999999</v>
       </c>
       <c r="C103" s="2">
-        <v>119.02</v>
+        <v>76.06</v>
       </c>
       <c r="D103" s="3">
-        <v>6.021735257438081</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3359,13 +3359,13 @@
         <v>106</v>
       </c>
       <c r="B104" s="2">
-        <v>4347.82</v>
+        <v>112.26</v>
       </c>
       <c r="C104" s="2">
-        <v>4599.605</v>
+        <v>118.85</v>
       </c>
       <c r="D104" s="3">
-        <v>5.791063107488348</v>
+        <v>5.87</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3373,13 +3373,13 @@
         <v>107</v>
       </c>
       <c r="B105" s="2">
-        <v>71.81999999999999</v>
+        <v>4347.82</v>
       </c>
       <c r="C105" s="2">
-        <v>75.97499999999999</v>
+        <v>4597.91</v>
       </c>
       <c r="D105" s="3">
-        <v>5.785296574770261</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3390,10 +3390,10 @@
         <v>221.31</v>
       </c>
       <c r="C106" s="2">
-        <v>233.72</v>
+        <v>233.64</v>
       </c>
       <c r="D106" s="3">
-        <v>5.607518864940579</v>
+        <v>5.57</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3401,13 +3401,13 @@
         <v>109</v>
       </c>
       <c r="B107" s="2">
-        <v>126.57</v>
+        <v>7.6</v>
       </c>
       <c r="C107" s="2">
-        <v>133.525</v>
+        <v>8.02</v>
       </c>
       <c r="D107" s="3">
-        <v>5.494983013352305</v>
+        <v>5.53</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3418,10 +3418,10 @@
         <v>316.85</v>
       </c>
       <c r="C108" s="2">
-        <v>333.88</v>
+        <v>334.27</v>
       </c>
       <c r="D108" s="3">
-        <v>5.374783020356626</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3429,13 +3429,13 @@
         <v>111</v>
       </c>
       <c r="B109" s="2">
-        <v>7.6</v>
+        <v>126.57</v>
       </c>
       <c r="C109" s="2">
-        <v>7.9999</v>
+        <v>133.46</v>
       </c>
       <c r="D109" s="3">
-        <v>5.261842105263166</v>
+        <v>5.44</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3446,10 +3446,10 @@
         <v>140.33</v>
       </c>
       <c r="C110" s="2">
-        <v>147.59</v>
+        <v>147.865</v>
       </c>
       <c r="D110" s="3">
-        <v>5.173519561034698</v>
+        <v>5.37</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3460,10 +3460,10 @@
         <v>64.97</v>
       </c>
       <c r="C111" s="2">
-        <v>68.33</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D111" s="3">
-        <v>5.171617669693704</v>
+        <v>5.28</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3474,10 +3474,10 @@
         <v>165.96</v>
       </c>
       <c r="C112" s="2">
-        <v>173.73</v>
+        <v>174.185</v>
       </c>
       <c r="D112" s="3">
-        <v>4.681851048445397</v>
+        <v>4.96</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3488,10 +3488,10 @@
         <v>564.5599999999999</v>
       </c>
       <c r="C113" s="2">
-        <v>590.6900000000001</v>
+        <v>591.205</v>
       </c>
       <c r="D113" s="3">
-        <v>4.628383165651146</v>
+        <v>4.72</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3502,10 +3502,10 @@
         <v>135.52</v>
       </c>
       <c r="C114" s="2">
-        <v>141.545</v>
+        <v>141.675</v>
       </c>
       <c r="D114" s="3">
-        <v>4.445838252656417</v>
+        <v>4.54</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3513,13 +3513,13 @@
         <v>117</v>
       </c>
       <c r="B115" s="2">
-        <v>188.12</v>
+        <v>542</v>
       </c>
       <c r="C115" s="2">
-        <v>196.3213</v>
+        <v>565.98</v>
       </c>
       <c r="D115" s="3">
-        <v>4.359610886668086</v>
+        <v>4.42</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3527,13 +3527,13 @@
         <v>118</v>
       </c>
       <c r="B116" s="2">
-        <v>542</v>
+        <v>10.27</v>
       </c>
       <c r="C116" s="2">
-        <v>565.42</v>
+        <v>10.72</v>
       </c>
       <c r="D116" s="3">
-        <v>4.321033210332096</v>
+        <v>4.38</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3541,13 +3541,13 @@
         <v>119</v>
       </c>
       <c r="B117" s="2">
-        <v>10.27</v>
+        <v>222.31</v>
       </c>
       <c r="C117" s="2">
-        <v>10.705</v>
+        <v>231.79</v>
       </c>
       <c r="D117" s="3">
-        <v>4.235637779941583</v>
+        <v>4.26</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3558,10 +3558,10 @@
         <v>58.67</v>
       </c>
       <c r="C118" s="2">
-        <v>61.12</v>
+        <v>61.16</v>
       </c>
       <c r="D118" s="3">
-        <v>4.175899096642229</v>
+        <v>4.24</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3569,13 +3569,13 @@
         <v>121</v>
       </c>
       <c r="B119" s="2">
-        <v>519.35</v>
+        <v>188.12</v>
       </c>
       <c r="C119" s="2">
-        <v>540.14</v>
+        <v>195.75</v>
       </c>
       <c r="D119" s="3">
-        <v>4.003080774044472</v>
+        <v>4.06</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3583,13 +3583,13 @@
         <v>122</v>
       </c>
       <c r="B120" s="2">
-        <v>222.31</v>
+        <v>519.35</v>
       </c>
       <c r="C120" s="2">
-        <v>231.19</v>
+        <v>540.14</v>
       </c>
       <c r="D120" s="3">
-        <v>3.994422203229722</v>
+        <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3597,13 +3597,13 @@
         <v>123</v>
       </c>
       <c r="B121" s="2">
-        <v>134.76</v>
+        <v>125.16</v>
       </c>
       <c r="C121" s="2">
-        <v>139.88</v>
+        <v>130.005</v>
       </c>
       <c r="D121" s="3">
-        <v>3.799346987236572</v>
+        <v>3.87</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3611,13 +3611,13 @@
         <v>124</v>
       </c>
       <c r="B122" s="2">
-        <v>117.21</v>
+        <v>134.76</v>
       </c>
       <c r="C122" s="2">
-        <v>121.49</v>
+        <v>139.79</v>
       </c>
       <c r="D122" s="3">
-        <v>3.651565566077981</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3625,13 +3625,13 @@
         <v>125</v>
       </c>
       <c r="B123" s="2">
-        <v>125.16</v>
+        <v>117.21</v>
       </c>
       <c r="C123" s="2">
-        <v>129.7122</v>
+        <v>121.53</v>
       </c>
       <c r="D123" s="3">
-        <v>3.637104506232022</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3639,13 +3639,13 @@
         <v>126</v>
       </c>
       <c r="B124" s="2">
-        <v>100.84</v>
+        <v>325.54</v>
       </c>
       <c r="C124" s="2">
-        <v>104.355</v>
+        <v>336.57</v>
       </c>
       <c r="D124" s="3">
-        <v>3.485719952399842</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3656,10 +3656,10 @@
         <v>287.96</v>
       </c>
       <c r="C125" s="2">
-        <v>297.67</v>
+        <v>297.68</v>
       </c>
       <c r="D125" s="3">
-        <v>3.371996110570926</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3667,13 +3667,13 @@
         <v>128</v>
       </c>
       <c r="B126" s="2">
-        <v>325.54</v>
+        <v>100.84</v>
       </c>
       <c r="C126" s="2">
-        <v>336.06</v>
+        <v>104.1701</v>
       </c>
       <c r="D126" s="3">
-        <v>3.231553726116601</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3681,13 +3681,13 @@
         <v>129</v>
       </c>
       <c r="B127" s="2">
-        <v>70.76000000000001</v>
+        <v>212.82</v>
       </c>
       <c r="C127" s="2">
-        <v>72.97</v>
+        <v>219.74</v>
       </c>
       <c r="D127" s="3">
-        <v>3.123233465234587</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3695,13 +3695,13 @@
         <v>130</v>
       </c>
       <c r="B128" s="2">
-        <v>425.27</v>
+        <v>179.1</v>
       </c>
       <c r="C128" s="2">
-        <v>438.39</v>
+        <v>184.67</v>
       </c>
       <c r="D128" s="3">
-        <v>3.085098878359632</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3709,13 +3709,13 @@
         <v>131</v>
       </c>
       <c r="B129" s="2">
-        <v>212.82</v>
+        <v>425.27</v>
       </c>
       <c r="C129" s="2">
-        <v>219.38</v>
+        <v>438.39</v>
       </c>
       <c r="D129" s="3">
-        <v>3.08241706606522</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3726,10 +3726,10 @@
         <v>69.38</v>
       </c>
       <c r="C130" s="2">
-        <v>71.44</v>
+        <v>71.52</v>
       </c>
       <c r="D130" s="3">
-        <v>2.969155376189107</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3737,13 +3737,13 @@
         <v>133</v>
       </c>
       <c r="B131" s="2">
-        <v>477.7</v>
+        <v>70.76000000000001</v>
       </c>
       <c r="C131" s="2">
-        <v>491.28</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="D131" s="3">
-        <v>2.842788360895956</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3751,13 +3751,13 @@
         <v>134</v>
       </c>
       <c r="B132" s="2">
-        <v>179.1</v>
+        <v>37.52</v>
       </c>
       <c r="C132" s="2">
-        <v>184.06</v>
+        <v>38.65</v>
       </c>
       <c r="D132" s="3">
-        <v>2.769402568397548</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3765,13 +3765,13 @@
         <v>135</v>
       </c>
       <c r="B133" s="2">
-        <v>37.52</v>
+        <v>477.7</v>
       </c>
       <c r="C133" s="2">
-        <v>38.5</v>
+        <v>491.735</v>
       </c>
       <c r="D133" s="3">
-        <v>2.611940298507454</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3779,13 +3779,13 @@
         <v>136</v>
       </c>
       <c r="B134" s="2">
-        <v>250.5</v>
+        <v>197.59</v>
       </c>
       <c r="C134" s="2">
-        <v>256.45</v>
+        <v>203.14</v>
       </c>
       <c r="D134" s="3">
-        <v>2.375249500997999</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3796,10 +3796,10 @@
         <v>34.58</v>
       </c>
       <c r="C135" s="2">
-        <v>35.385</v>
+        <v>35.415</v>
       </c>
       <c r="D135" s="3">
-        <v>2.327935222672064</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3807,13 +3807,13 @@
         <v>138</v>
       </c>
       <c r="B136" s="2">
-        <v>22.64</v>
+        <v>250.5</v>
       </c>
       <c r="C136" s="2">
-        <v>23.145</v>
+        <v>256.45</v>
       </c>
       <c r="D136" s="3">
-        <v>2.23056537102473</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3824,10 +3824,10 @@
         <v>507.36</v>
       </c>
       <c r="C137" s="2">
-        <v>518.29</v>
+        <v>518.965</v>
       </c>
       <c r="D137" s="3">
-        <v>2.154288867865017</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3835,13 +3835,13 @@
         <v>140</v>
       </c>
       <c r="B138" s="2">
-        <v>197.59</v>
+        <v>326.58</v>
       </c>
       <c r="C138" s="2">
-        <v>201.75</v>
+        <v>334.01</v>
       </c>
       <c r="D138" s="3">
-        <v>2.105369704944581</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3849,13 +3849,13 @@
         <v>141</v>
       </c>
       <c r="B139" s="2">
-        <v>326.58</v>
+        <v>22.64</v>
       </c>
       <c r="C139" s="2">
-        <v>332.94</v>
+        <v>23.115</v>
       </c>
       <c r="D139" s="3">
-        <v>1.947455447363591</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3866,10 +3866,10 @@
         <v>75.2</v>
       </c>
       <c r="C140" s="2">
-        <v>76.625</v>
+        <v>76.77500000000001</v>
       </c>
       <c r="D140" s="3">
-        <v>1.894946808510635</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3877,13 +3877,13 @@
         <v>143</v>
       </c>
       <c r="B141" s="2">
-        <v>80.88</v>
+        <v>61.76</v>
       </c>
       <c r="C141" s="2">
-        <v>82.26000000000001</v>
+        <v>62.8698</v>
       </c>
       <c r="D141" s="3">
-        <v>1.706231454005947</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3891,13 +3891,13 @@
         <v>144</v>
       </c>
       <c r="B142" s="2">
-        <v>55.74</v>
+        <v>80.88</v>
       </c>
       <c r="C142" s="2">
-        <v>56.55</v>
+        <v>82.29000000000001</v>
       </c>
       <c r="D142" s="3">
-        <v>1.453175457481154</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3905,13 +3905,13 @@
         <v>145</v>
       </c>
       <c r="B143" s="2">
-        <v>61.76</v>
+        <v>257.3</v>
       </c>
       <c r="C143" s="2">
-        <v>62.62</v>
+        <v>261.46</v>
       </c>
       <c r="D143" s="3">
-        <v>1.392487046632123</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3919,13 +3919,13 @@
         <v>146</v>
       </c>
       <c r="B144" s="2">
-        <v>153.32</v>
+        <v>155.01</v>
       </c>
       <c r="C144" s="2">
-        <v>155.13</v>
+        <v>157.28</v>
       </c>
       <c r="D144" s="3">
-        <v>1.180537438038092</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3933,13 +3933,13 @@
         <v>147</v>
       </c>
       <c r="B145" s="2">
-        <v>60.74</v>
+        <v>55.74</v>
       </c>
       <c r="C145" s="2">
-        <v>61.375</v>
+        <v>56.55</v>
       </c>
       <c r="D145" s="3">
-        <v>1.045439578531442</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3947,13 +3947,13 @@
         <v>148</v>
       </c>
       <c r="B146" s="2">
-        <v>257.3</v>
+        <v>153.32</v>
       </c>
       <c r="C146" s="2">
-        <v>259.98</v>
+        <v>155.4</v>
       </c>
       <c r="D146" s="3">
-        <v>1.041585697629229</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3961,13 +3961,13 @@
         <v>149</v>
       </c>
       <c r="B147" s="2">
-        <v>155.01</v>
+        <v>76.73999999999999</v>
       </c>
       <c r="C147" s="2">
-        <v>156.58</v>
+        <v>77.59</v>
       </c>
       <c r="D147" s="3">
-        <v>1.012837881427019</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3975,13 +3975,13 @@
         <v>150</v>
       </c>
       <c r="B148" s="2">
-        <v>76.73999999999999</v>
+        <v>32.1</v>
       </c>
       <c r="C148" s="2">
-        <v>77.42</v>
+        <v>32.395</v>
       </c>
       <c r="D148" s="3">
-        <v>0.8861089392754845</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3989,13 +3989,13 @@
         <v>151</v>
       </c>
       <c r="B149" s="2">
-        <v>191.77</v>
+        <v>60.74</v>
       </c>
       <c r="C149" s="2">
-        <v>193.105</v>
+        <v>61.3</v>
       </c>
       <c r="D149" s="3">
-        <v>0.6961464254054228</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4003,13 +4003,13 @@
         <v>152</v>
       </c>
       <c r="B150" s="2">
-        <v>32.1</v>
+        <v>26.94</v>
       </c>
       <c r="C150" s="2">
-        <v>32.31</v>
+        <v>27.13</v>
       </c>
       <c r="D150" s="3">
-        <v>0.6542056074766381</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4020,10 +4020,10 @@
         <v>161.27</v>
       </c>
       <c r="C151" s="2">
-        <v>162.12</v>
+        <v>162.27</v>
       </c>
       <c r="D151" s="3">
-        <v>0.5270664103677027</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4031,13 +4031,13 @@
         <v>154</v>
       </c>
       <c r="B152" s="2">
-        <v>336</v>
+        <v>191.77</v>
       </c>
       <c r="C152" s="2">
-        <v>337.545</v>
+        <v>192.74</v>
       </c>
       <c r="D152" s="3">
-        <v>0.4598214285714333</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -4045,13 +4045,13 @@
         <v>155</v>
       </c>
       <c r="B153" s="2">
-        <v>26.94</v>
+        <v>336</v>
       </c>
       <c r="C153" s="2">
-        <v>27.06</v>
+        <v>337.58</v>
       </c>
       <c r="D153" s="3">
-        <v>0.4454342984409705</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4059,13 +4059,13 @@
         <v>156</v>
       </c>
       <c r="B154" s="2">
-        <v>25.99</v>
+        <v>64.53</v>
       </c>
       <c r="C154" s="2">
-        <v>26.06</v>
+        <v>64.795</v>
       </c>
       <c r="D154" s="3">
-        <v>0.2693343593689892</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4073,13 +4073,13 @@
         <v>157</v>
       </c>
       <c r="B155" s="2">
-        <v>116.07</v>
+        <v>25.99</v>
       </c>
       <c r="C155" s="2">
-        <v>116.355</v>
+        <v>26.045</v>
       </c>
       <c r="D155" s="3">
-        <v>0.2455414835874996</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4087,13 +4087,13 @@
         <v>158</v>
       </c>
       <c r="B156" s="2">
-        <v>287.99</v>
+        <v>1354.83</v>
       </c>
       <c r="C156" s="2">
-        <v>288.5</v>
+        <v>1357.46</v>
       </c>
       <c r="D156" s="3">
-        <v>0.1770894822736869</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4101,13 +4101,13 @@
         <v>159</v>
       </c>
       <c r="B157" s="2">
-        <v>64.53</v>
+        <v>173</v>
       </c>
       <c r="C157" s="2">
-        <v>64.6414</v>
+        <v>173.305</v>
       </c>
       <c r="D157" s="3">
-        <v>0.1726328839299601</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4121,7 +4121,7 @@
         <v>168.51</v>
       </c>
       <c r="D158" s="3">
-        <v>0.1723932944952991</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4129,13 +4129,13 @@
         <v>161</v>
       </c>
       <c r="B159" s="2">
-        <v>1354.83</v>
+        <v>71.01000000000001</v>
       </c>
       <c r="C159" s="2">
-        <v>1356.77</v>
+        <v>71.105</v>
       </c>
       <c r="D159" s="3">
-        <v>0.1431913967066019</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4143,13 +4143,13 @@
         <v>162</v>
       </c>
       <c r="B160" s="2">
-        <v>71.01000000000001</v>
+        <v>116.07</v>
       </c>
       <c r="C160" s="2">
-        <v>70.98999999999999</v>
+        <v>116.21</v>
       </c>
       <c r="D160" s="3">
-        <v>-0.02816504717646843</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4157,13 +4157,13 @@
         <v>163</v>
       </c>
       <c r="B161" s="2">
-        <v>207.41</v>
+        <v>287.99</v>
       </c>
       <c r="C161" s="2">
-        <v>207.175</v>
+        <v>288.165</v>
       </c>
       <c r="D161" s="3">
-        <v>-0.1133021551516249</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4171,13 +4171,13 @@
         <v>164</v>
       </c>
       <c r="B162" s="2">
-        <v>173</v>
+        <v>375.44</v>
       </c>
       <c r="C162" s="2">
-        <v>172.72</v>
+        <v>375.4</v>
       </c>
       <c r="D162" s="3">
-        <v>-0.1618497109826596</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4188,10 +4188,10 @@
         <v>145.2</v>
       </c>
       <c r="C163" s="2">
-        <v>144.81</v>
+        <v>145.09</v>
       </c>
       <c r="D163" s="3">
-        <v>-0.2685950413223047</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4199,13 +4199,13 @@
         <v>166</v>
       </c>
       <c r="B164" s="2">
-        <v>375.44</v>
+        <v>207.41</v>
       </c>
       <c r="C164" s="2">
-        <v>374.32</v>
+        <v>207.18</v>
       </c>
       <c r="D164" s="3">
-        <v>-0.2983166418069477</v>
+        <v>-0.11</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4216,10 +4216,10 @@
         <v>324.55</v>
       </c>
       <c r="C165" s="2">
-        <v>322.78</v>
+        <v>323.5725</v>
       </c>
       <c r="D165" s="3">
-        <v>-0.5453705130180369</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4230,10 +4230,10 @@
         <v>114.24</v>
       </c>
       <c r="C166" s="2">
-        <v>113.5401</v>
+        <v>113.87</v>
       </c>
       <c r="D166" s="3">
-        <v>-0.6126575630252097</v>
+        <v>-0.32</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4244,10 +4244,10 @@
         <v>91.88</v>
       </c>
       <c r="C167" s="2">
-        <v>91.23399999999999</v>
+        <v>91.22499999999999</v>
       </c>
       <c r="D167" s="3">
-        <v>-0.7030909882455386</v>
+        <v>-0.71</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4255,13 +4255,13 @@
         <v>170</v>
       </c>
       <c r="B168" s="2">
-        <v>33.6</v>
+        <v>469.19</v>
       </c>
       <c r="C168" s="2">
-        <v>33.34</v>
+        <v>465.73</v>
       </c>
       <c r="D168" s="3">
-        <v>-0.7738095238095178</v>
+        <v>-0.74</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4272,10 +4272,10 @@
         <v>60.35</v>
       </c>
       <c r="C169" s="2">
-        <v>59.878</v>
+        <v>59.9</v>
       </c>
       <c r="D169" s="3">
-        <v>-0.7821043910521976</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4283,13 +4283,13 @@
         <v>172</v>
       </c>
       <c r="B170" s="2">
-        <v>224.12</v>
+        <v>33.6</v>
       </c>
       <c r="C170" s="2">
-        <v>221.99</v>
+        <v>33.34</v>
       </c>
       <c r="D170" s="3">
-        <v>-0.9503837230055308</v>
+        <v>-0.77</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4297,13 +4297,13 @@
         <v>173</v>
       </c>
       <c r="B171" s="2">
-        <v>352.82</v>
+        <v>109.75</v>
       </c>
       <c r="C171" s="2">
-        <v>349.4325</v>
+        <v>108.81</v>
       </c>
       <c r="D171" s="3">
-        <v>-0.960121308315852</v>
+        <v>-0.86</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4311,13 +4311,13 @@
         <v>174</v>
       </c>
       <c r="B172" s="2">
-        <v>469.19</v>
+        <v>352.82</v>
       </c>
       <c r="C172" s="2">
-        <v>464.605</v>
+        <v>349.4325</v>
       </c>
       <c r="D172" s="3">
-        <v>-0.9772160531980604</v>
+        <v>-0.96</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4325,13 +4325,13 @@
         <v>175</v>
       </c>
       <c r="B173" s="2">
-        <v>109.75</v>
+        <v>224.12</v>
       </c>
       <c r="C173" s="2">
-        <v>108.55</v>
+        <v>221.885</v>
       </c>
       <c r="D173" s="3">
-        <v>-1.09339407744875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4342,10 +4342,10 @@
         <v>95.61</v>
       </c>
       <c r="C174" s="2">
-        <v>94.53</v>
+        <v>94.495</v>
       </c>
       <c r="D174" s="3">
-        <v>-1.129588955130215</v>
+        <v>-1.17</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4356,10 +4356,10 @@
         <v>222.8</v>
       </c>
       <c r="C175" s="2">
-        <v>219.855</v>
+        <v>219.905</v>
       </c>
       <c r="D175" s="3">
-        <v>-1.321813285457819</v>
+        <v>-1.3</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4370,10 +4370,10 @@
         <v>512.6</v>
       </c>
       <c r="C176" s="2">
-        <v>504.06</v>
+        <v>505.605</v>
       </c>
       <c r="D176" s="3">
-        <v>-1.666016387046434</v>
+        <v>-1.36</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4381,13 +4381,13 @@
         <v>179</v>
       </c>
       <c r="B177" s="2">
-        <v>228.63</v>
+        <v>237.71</v>
       </c>
       <c r="C177" s="2">
-        <v>224.15</v>
+        <v>233.11</v>
       </c>
       <c r="D177" s="3">
-        <v>-1.959497878668587</v>
+        <v>-1.94</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4398,10 +4398,10 @@
         <v>31.06</v>
       </c>
       <c r="C178" s="2">
-        <v>30.425</v>
+        <v>30.4399</v>
       </c>
       <c r="D178" s="3">
-        <v>-2.044430135222144</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4415,7 +4415,7 @@
         <v>62.838479</v>
       </c>
       <c r="D179" s="3">
-        <v>-2.151231703519152</v>
+        <v>-2.15</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4423,13 +4423,13 @@
         <v>182</v>
       </c>
       <c r="B180" s="2">
-        <v>237.71</v>
+        <v>228.63</v>
       </c>
       <c r="C180" s="2">
-        <v>232.45</v>
+        <v>223.41</v>
       </c>
       <c r="D180" s="3">
-        <v>-2.212780278490606</v>
+        <v>-2.28</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4440,10 +4440,10 @@
         <v>158.39</v>
       </c>
       <c r="C181" s="2">
-        <v>154.225</v>
+        <v>154.76</v>
       </c>
       <c r="D181" s="3">
-        <v>-2.629585201085923</v>
+        <v>-2.29</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4451,13 +4451,13 @@
         <v>184</v>
       </c>
       <c r="B182" s="2">
-        <v>74.69</v>
+        <v>144.22</v>
       </c>
       <c r="C182" s="2">
-        <v>72.65000000000001</v>
+        <v>140.54</v>
       </c>
       <c r="D182" s="3">
-        <v>-2.731289329227463</v>
+        <v>-2.55</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4465,13 +4465,13 @@
         <v>185</v>
       </c>
       <c r="B183" s="2">
-        <v>144.22</v>
+        <v>74.69</v>
       </c>
       <c r="C183" s="2">
-        <v>140.245</v>
+        <v>72.715</v>
       </c>
       <c r="D183" s="3">
-        <v>-2.756205796699483</v>
+        <v>-2.64</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4482,10 +4482,10 @@
         <v>69.23</v>
       </c>
       <c r="C184" s="2">
-        <v>67.315</v>
+        <v>67.27500000000001</v>
       </c>
       <c r="D184" s="3">
-        <v>-2.76614184602052</v>
+        <v>-2.82</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4496,10 +4496,10 @@
         <v>609.27</v>
       </c>
       <c r="C185" s="2">
-        <v>589.96</v>
+        <v>590.735</v>
       </c>
       <c r="D185" s="3">
-        <v>-3.169366619068713</v>
+        <v>-3.04</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4507,13 +4507,13 @@
         <v>188</v>
       </c>
       <c r="B186" s="2">
-        <v>73.92</v>
+        <v>101.26</v>
       </c>
       <c r="C186" s="2">
-        <v>71.45</v>
+        <v>98.03</v>
       </c>
       <c r="D186" s="3">
-        <v>-3.341450216450215</v>
+        <v>-3.19</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4521,13 +4521,13 @@
         <v>189</v>
       </c>
       <c r="B187" s="2">
-        <v>101.26</v>
+        <v>73.92</v>
       </c>
       <c r="C187" s="2">
-        <v>97.84999999999999</v>
+        <v>71.52</v>
       </c>
       <c r="D187" s="3">
-        <v>-3.367568635196534</v>
+        <v>-3.25</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4535,13 +4535,13 @@
         <v>190</v>
       </c>
       <c r="B188" s="2">
-        <v>165.31</v>
+        <v>48.57</v>
       </c>
       <c r="C188" s="2">
-        <v>159.65</v>
+        <v>46.97</v>
       </c>
       <c r="D188" s="3">
-        <v>-3.423870304276811</v>
+        <v>-3.29</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4549,13 +4549,13 @@
         <v>191</v>
       </c>
       <c r="B189" s="2">
-        <v>48.57</v>
+        <v>165.31</v>
       </c>
       <c r="C189" s="2">
-        <v>46.86</v>
+        <v>159.72</v>
       </c>
       <c r="D189" s="3">
-        <v>-3.520691785052503</v>
+        <v>-3.38</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4563,13 +4563,13 @@
         <v>192</v>
       </c>
       <c r="B190" s="2">
-        <v>160.88</v>
+        <v>673.0700000000001</v>
       </c>
       <c r="C190" s="2">
-        <v>154.58</v>
+        <v>647.77</v>
       </c>
       <c r="D190" s="3">
-        <v>-3.915962207856777</v>
+        <v>-3.76</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4577,13 +4577,13 @@
         <v>193</v>
       </c>
       <c r="B191" s="2">
-        <v>1999.97</v>
+        <v>200.91</v>
       </c>
       <c r="C191" s="2">
-        <v>1920</v>
+        <v>193.275</v>
       </c>
       <c r="D191" s="3">
-        <v>-3.998559978399677</v>
+        <v>-3.8</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4591,13 +4591,13 @@
         <v>194</v>
       </c>
       <c r="B192" s="2">
-        <v>200.91</v>
+        <v>1999.97</v>
       </c>
       <c r="C192" s="2">
-        <v>192.82</v>
+        <v>1920</v>
       </c>
       <c r="D192" s="3">
-        <v>-4.026678612313973</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4605,13 +4605,13 @@
         <v>195</v>
       </c>
       <c r="B193" s="2">
-        <v>166.96</v>
+        <v>160.88</v>
       </c>
       <c r="C193" s="2">
-        <v>160.135</v>
+        <v>154.415</v>
       </c>
       <c r="D193" s="3">
-        <v>-4.087805462386211</v>
+        <v>-4.02</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4619,13 +4619,13 @@
         <v>196</v>
       </c>
       <c r="B194" s="2">
-        <v>267.35</v>
+        <v>166.96</v>
       </c>
       <c r="C194" s="2">
-        <v>256.28</v>
+        <v>160.23</v>
       </c>
       <c r="D194" s="3">
-        <v>-4.140639610996839</v>
+        <v>-4.03</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4636,10 +4636,10 @@
         <v>102.35</v>
       </c>
       <c r="C195" s="2">
-        <v>98.09999999999999</v>
+        <v>98.2195</v>
       </c>
       <c r="D195" s="3">
-        <v>-4.152418172936004</v>
+        <v>-4.04</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4647,13 +4647,13 @@
         <v>198</v>
       </c>
       <c r="B196" s="2">
-        <v>51.92</v>
+        <v>60.9</v>
       </c>
       <c r="C196" s="2">
-        <v>49.72</v>
+        <v>58.41</v>
       </c>
       <c r="D196" s="3">
-        <v>-4.237288135593226</v>
+        <v>-4.09</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4661,13 +4661,13 @@
         <v>199</v>
       </c>
       <c r="B197" s="2">
-        <v>60.9</v>
+        <v>51.92</v>
       </c>
       <c r="C197" s="2">
-        <v>58.3</v>
+        <v>49.79</v>
       </c>
       <c r="D197" s="3">
-        <v>-4.269293924466341</v>
+        <v>-4.1</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4678,10 +4678,10 @@
         <v>473.76</v>
       </c>
       <c r="C198" s="2">
-        <v>453.37</v>
+        <v>454.23</v>
       </c>
       <c r="D198" s="3">
-        <v>-4.303866936845657</v>
+        <v>-4.12</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4689,13 +4689,13 @@
         <v>201</v>
       </c>
       <c r="B199" s="2">
-        <v>77.86</v>
+        <v>267.35</v>
       </c>
       <c r="C199" s="2">
-        <v>74.43000000000001</v>
+        <v>256.1507</v>
       </c>
       <c r="D199" s="3">
-        <v>-4.405342923195469</v>
+        <v>-4.19</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4706,10 +4706,10 @@
         <v>490.61</v>
       </c>
       <c r="C200" s="2">
-        <v>468.26</v>
+        <v>468.5411</v>
       </c>
       <c r="D200" s="3">
-        <v>-4.555553290801252</v>
+        <v>-4.5</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4717,13 +4717,13 @@
         <v>203</v>
       </c>
       <c r="B201" s="2">
-        <v>77.62</v>
+        <v>77.86</v>
       </c>
       <c r="C201" s="2">
-        <v>74.02</v>
+        <v>74.3</v>
       </c>
       <c r="D201" s="3">
-        <v>-4.637979902087102</v>
+        <v>-4.57</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4731,13 +4731,13 @@
         <v>204</v>
       </c>
       <c r="B202" s="2">
-        <v>673.0700000000001</v>
+        <v>77.62</v>
       </c>
       <c r="C202" s="2">
-        <v>641.8099999999999</v>
+        <v>74.02</v>
       </c>
       <c r="D202" s="3">
-        <v>-4.644390628017903</v>
+        <v>-4.64</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4745,13 +4745,13 @@
         <v>205</v>
       </c>
       <c r="B203" s="2">
-        <v>74.81999999999999</v>
+        <v>373.3</v>
       </c>
       <c r="C203" s="2">
-        <v>71.31999999999999</v>
+        <v>355.95</v>
       </c>
       <c r="D203" s="3">
-        <v>-4.677893611333869</v>
+        <v>-4.65</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4759,13 +4759,13 @@
         <v>206</v>
       </c>
       <c r="B204" s="2">
-        <v>511.27</v>
+        <v>43.41</v>
       </c>
       <c r="C204" s="2">
-        <v>486.53</v>
+        <v>41.33</v>
       </c>
       <c r="D204" s="3">
-        <v>-4.838930506386061</v>
+        <v>-4.79</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4773,13 +4773,13 @@
         <v>207</v>
       </c>
       <c r="B205" s="2">
-        <v>373.3</v>
+        <v>511.27</v>
       </c>
       <c r="C205" s="2">
-        <v>354.96</v>
+        <v>486.66</v>
       </c>
       <c r="D205" s="3">
-        <v>-4.912938655237084</v>
+        <v>-4.81</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4787,13 +4787,13 @@
         <v>208</v>
       </c>
       <c r="B206" s="2">
-        <v>141.25</v>
+        <v>74.81999999999999</v>
       </c>
       <c r="C206" s="2">
-        <v>134.305</v>
+        <v>71.22</v>
       </c>
       <c r="D206" s="3">
-        <v>-4.916814159292031</v>
+        <v>-4.81</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4801,13 +4801,13 @@
         <v>209</v>
       </c>
       <c r="B207" s="2">
-        <v>43.41</v>
+        <v>230.3</v>
       </c>
       <c r="C207" s="2">
-        <v>41.275</v>
+        <v>219.11</v>
       </c>
       <c r="D207" s="3">
-        <v>-4.918221607924437</v>
+        <v>-4.86</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4815,13 +4815,13 @@
         <v>210</v>
       </c>
       <c r="B208" s="2">
-        <v>182.44</v>
+        <v>454.94</v>
       </c>
       <c r="C208" s="2">
-        <v>173.31</v>
+        <v>432.135</v>
       </c>
       <c r="D208" s="3">
-        <v>-5.00438500328875</v>
+        <v>-5.01</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4829,13 +4829,13 @@
         <v>211</v>
       </c>
       <c r="B209" s="2">
-        <v>230.3</v>
+        <v>182.44</v>
       </c>
       <c r="C209" s="2">
-        <v>218.4491</v>
+        <v>173.25</v>
       </c>
       <c r="D209" s="3">
-        <v>-5.145853234910995</v>
+        <v>-5.04</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4843,13 +4843,13 @@
         <v>212</v>
       </c>
       <c r="B210" s="2">
-        <v>454.94</v>
+        <v>141.25</v>
       </c>
       <c r="C210" s="2">
-        <v>431.48</v>
+        <v>134.105</v>
       </c>
       <c r="D210" s="3">
-        <v>-5.156723963599591</v>
+        <v>-5.06</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4860,10 +4860,10 @@
         <v>605.86</v>
       </c>
       <c r="C211" s="2">
-        <v>574.425</v>
+        <v>575.17</v>
       </c>
       <c r="D211" s="3">
-        <v>-5.188492390981424</v>
+        <v>-5.07</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4874,10 +4874,10 @@
         <v>208</v>
       </c>
       <c r="C212" s="2">
-        <v>196.97</v>
+        <v>196.945</v>
       </c>
       <c r="D212" s="3">
-        <v>-5.302884615384616</v>
+        <v>-5.31</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4885,13 +4885,13 @@
         <v>215</v>
       </c>
       <c r="B213" s="2">
-        <v>43.87</v>
+        <v>118.29</v>
       </c>
       <c r="C213" s="2">
-        <v>41.49</v>
+        <v>111.89</v>
       </c>
       <c r="D213" s="3">
-        <v>-5.425119671757455</v>
+        <v>-5.41</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4899,13 +4899,13 @@
         <v>216</v>
       </c>
       <c r="B214" s="2">
-        <v>118.29</v>
+        <v>43.87</v>
       </c>
       <c r="C214" s="2">
-        <v>111.84</v>
+        <v>41.49</v>
       </c>
       <c r="D214" s="3">
-        <v>-5.4527009890946</v>
+        <v>-5.43</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4913,13 +4913,13 @@
         <v>217</v>
       </c>
       <c r="B215" s="2">
-        <v>256.54</v>
+        <v>241.79</v>
       </c>
       <c r="C215" s="2">
-        <v>242.28</v>
+        <v>228.445</v>
       </c>
       <c r="D215" s="3">
-        <v>-5.558587354798479</v>
+        <v>-5.52</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4927,13 +4927,13 @@
         <v>218</v>
       </c>
       <c r="B216" s="2">
-        <v>166.99</v>
+        <v>256.54</v>
       </c>
       <c r="C216" s="2">
-        <v>157.56</v>
+        <v>242.28</v>
       </c>
       <c r="D216" s="3">
-        <v>-5.647044733217562</v>
+        <v>-5.56</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4941,13 +4941,13 @@
         <v>219</v>
       </c>
       <c r="B217" s="2">
-        <v>322.81</v>
+        <v>73.44</v>
       </c>
       <c r="C217" s="2">
-        <v>304.415</v>
+        <v>69.315</v>
       </c>
       <c r="D217" s="3">
-        <v>-5.698398438710071</v>
+        <v>-5.62</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4955,13 +4955,13 @@
         <v>220</v>
       </c>
       <c r="B218" s="2">
-        <v>241.79</v>
+        <v>166.99</v>
       </c>
       <c r="C218" s="2">
-        <v>227.88</v>
+        <v>157.37</v>
       </c>
       <c r="D218" s="3">
-        <v>-5.752926092890523</v>
+        <v>-5.76</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4969,13 +4969,13 @@
         <v>221</v>
       </c>
       <c r="B219" s="2">
-        <v>73.44</v>
+        <v>138.02</v>
       </c>
       <c r="C219" s="2">
-        <v>69.19499999999999</v>
+        <v>130.066938</v>
       </c>
       <c r="D219" s="3">
-        <v>-5.780228758169941</v>
+        <v>-5.76</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4983,13 +4983,13 @@
         <v>222</v>
       </c>
       <c r="B220" s="2">
-        <v>187.83</v>
+        <v>61.31</v>
       </c>
       <c r="C220" s="2">
-        <v>176.815</v>
+        <v>57.715</v>
       </c>
       <c r="D220" s="3">
-        <v>-5.86434541872971</v>
+        <v>-5.86</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4997,13 +4997,13 @@
         <v>223</v>
       </c>
       <c r="B221" s="2">
-        <v>183.22</v>
+        <v>322.81</v>
       </c>
       <c r="C221" s="2">
-        <v>172.1525</v>
+        <v>303.905</v>
       </c>
       <c r="D221" s="3">
-        <v>-6.040552341447438</v>
+        <v>-5.86</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -5011,13 +5011,13 @@
         <v>224</v>
       </c>
       <c r="B222" s="2">
-        <v>108.91</v>
+        <v>187.83</v>
       </c>
       <c r="C222" s="2">
-        <v>102.33</v>
+        <v>176.77</v>
       </c>
       <c r="D222" s="3">
-        <v>-6.041685795611054</v>
+        <v>-5.89</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -5025,13 +5025,13 @@
         <v>225</v>
       </c>
       <c r="B223" s="2">
-        <v>138.02</v>
+        <v>108.91</v>
       </c>
       <c r="C223" s="2">
-        <v>129.66</v>
+        <v>102.47</v>
       </c>
       <c r="D223" s="3">
-        <v>-6.057093174902198</v>
+        <v>-5.91</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -5039,13 +5039,13 @@
         <v>226</v>
       </c>
       <c r="B224" s="2">
-        <v>165.27</v>
+        <v>183.22</v>
       </c>
       <c r="C224" s="2">
-        <v>155.18</v>
+        <v>172.11</v>
       </c>
       <c r="D224" s="3">
-        <v>-6.105161251285776</v>
+        <v>-6.06</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -5053,13 +5053,13 @@
         <v>227</v>
       </c>
       <c r="B225" s="2">
-        <v>61.31</v>
+        <v>253.49</v>
       </c>
       <c r="C225" s="2">
-        <v>57.53</v>
+        <v>237.98</v>
       </c>
       <c r="D225" s="3">
-        <v>-6.165389006687328</v>
+        <v>-6.12</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -5070,10 +5070,10 @@
         <v>69.41</v>
       </c>
       <c r="C226" s="2">
-        <v>65.12</v>
+        <v>65.14</v>
       </c>
       <c r="D226" s="3">
-        <v>-6.180665610142619</v>
+        <v>-6.15</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5081,13 +5081,13 @@
         <v>229</v>
       </c>
       <c r="B227" s="2">
-        <v>253.49</v>
+        <v>124.03</v>
       </c>
       <c r="C227" s="2">
-        <v>237.6</v>
+        <v>116.39</v>
       </c>
       <c r="D227" s="3">
-        <v>-6.268491853722045</v>
+        <v>-6.16</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5095,13 +5095,13 @@
         <v>230</v>
       </c>
       <c r="B228" s="2">
-        <v>124.03</v>
+        <v>165.27</v>
       </c>
       <c r="C228" s="2">
-        <v>116.19</v>
+        <v>155.005</v>
       </c>
       <c r="D228" s="3">
-        <v>-6.321051358542292</v>
+        <v>-6.21</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5109,13 +5109,13 @@
         <v>231</v>
       </c>
       <c r="B229" s="2">
-        <v>444.02</v>
+        <v>89.63</v>
       </c>
       <c r="C229" s="2">
-        <v>415.57</v>
+        <v>84</v>
       </c>
       <c r="D229" s="3">
-        <v>-6.407369037430744</v>
+        <v>-6.28</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5123,13 +5123,13 @@
         <v>232</v>
       </c>
       <c r="B230" s="2">
-        <v>89.63</v>
+        <v>588.72</v>
       </c>
       <c r="C230" s="2">
-        <v>83.84</v>
+        <v>550.98</v>
       </c>
       <c r="D230" s="3">
-        <v>-6.459890661608828</v>
+        <v>-6.41</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5137,13 +5137,13 @@
         <v>233</v>
       </c>
       <c r="B231" s="2">
-        <v>588.72</v>
+        <v>444.02</v>
       </c>
       <c r="C231" s="2">
-        <v>549.425</v>
+        <v>415.0025</v>
       </c>
       <c r="D231" s="3">
-        <v>-6.674650088327231</v>
+        <v>-6.54</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5151,13 +5151,13 @@
         <v>234</v>
       </c>
       <c r="B232" s="2">
-        <v>100.3</v>
+        <v>116.88</v>
       </c>
       <c r="C232" s="2">
-        <v>93.42</v>
+        <v>109.165</v>
       </c>
       <c r="D232" s="3">
-        <v>-6.859421734795609</v>
+        <v>-6.6</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5165,13 +5165,13 @@
         <v>235</v>
       </c>
       <c r="B233" s="2">
-        <v>116.88</v>
+        <v>359.04</v>
       </c>
       <c r="C233" s="2">
-        <v>108.86</v>
+        <v>335.31</v>
       </c>
       <c r="D233" s="3">
-        <v>-6.861738535249826</v>
+        <v>-6.61</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5182,10 +5182,10 @@
         <v>504.48</v>
       </c>
       <c r="C234" s="2">
-        <v>469.845</v>
+        <v>470.81</v>
       </c>
       <c r="D234" s="3">
-        <v>-6.865485252140817</v>
+        <v>-6.67</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5196,10 +5196,10 @@
         <v>295.65</v>
       </c>
       <c r="C235" s="2">
-        <v>275.335</v>
+        <v>275.71</v>
       </c>
       <c r="D235" s="3">
-        <v>-6.87130052426856</v>
+        <v>-6.74</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5207,13 +5207,13 @@
         <v>238</v>
       </c>
       <c r="B236" s="2">
-        <v>359.04</v>
+        <v>144.91</v>
       </c>
       <c r="C236" s="2">
-        <v>333.88</v>
+        <v>134.735</v>
       </c>
       <c r="D236" s="3">
-        <v>-7.007575757575764</v>
+        <v>-7.02</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5221,13 +5221,13 @@
         <v>239</v>
       </c>
       <c r="B237" s="2">
-        <v>379.61</v>
+        <v>100.3</v>
       </c>
       <c r="C237" s="2">
-        <v>352.04</v>
+        <v>93.26000000000001</v>
       </c>
       <c r="D237" s="3">
-        <v>-7.262716999025313</v>
+        <v>-7.02</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5235,13 +5235,13 @@
         <v>240</v>
       </c>
       <c r="B238" s="2">
-        <v>144.91</v>
+        <v>462.8</v>
       </c>
       <c r="C238" s="2">
-        <v>134.37</v>
+        <v>429.075</v>
       </c>
       <c r="D238" s="3">
-        <v>-7.273480091091017</v>
+        <v>-7.29</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5249,13 +5249,13 @@
         <v>241</v>
       </c>
       <c r="B239" s="2">
-        <v>462.8</v>
+        <v>379.61</v>
       </c>
       <c r="C239" s="2">
-        <v>429.03</v>
+        <v>351.95</v>
       </c>
       <c r="D239" s="3">
-        <v>-7.296888504753682</v>
+        <v>-7.29</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5263,13 +5263,13 @@
         <v>242</v>
       </c>
       <c r="B240" s="2">
-        <v>156.99</v>
+        <v>302.52</v>
       </c>
       <c r="C240" s="2">
-        <v>145.505</v>
+        <v>280.4199</v>
       </c>
       <c r="D240" s="3">
-        <v>-7.315752595706742</v>
+        <v>-7.31</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5280,10 +5280,10 @@
         <v>462.32</v>
       </c>
       <c r="C241" s="2">
-        <v>428.305</v>
+        <v>428.265152</v>
       </c>
       <c r="D241" s="3">
-        <v>-7.357458037722786</v>
+        <v>-7.37</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5291,13 +5291,13 @@
         <v>244</v>
       </c>
       <c r="B242" s="2">
-        <v>302.52</v>
+        <v>156.99</v>
       </c>
       <c r="C242" s="2">
-        <v>279.95</v>
+        <v>145.305</v>
       </c>
       <c r="D242" s="3">
-        <v>-7.46066375776808</v>
+        <v>-7.44</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5305,13 +5305,13 @@
         <v>245</v>
       </c>
       <c r="B243" s="2">
-        <v>181.26</v>
+        <v>54.554</v>
       </c>
       <c r="C243" s="2">
-        <v>167.365</v>
+        <v>50.37</v>
       </c>
       <c r="D243" s="3">
-        <v>-7.665783956747204</v>
+        <v>-7.67</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5319,13 +5319,13 @@
         <v>246</v>
       </c>
       <c r="B244" s="2">
-        <v>286.04</v>
+        <v>90.59</v>
       </c>
       <c r="C244" s="2">
-        <v>263.89</v>
+        <v>83.523</v>
       </c>
       <c r="D244" s="3">
-        <v>-7.74367221367642</v>
+        <v>-7.8</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5333,13 +5333,13 @@
         <v>247</v>
       </c>
       <c r="B245" s="2">
-        <v>54.554</v>
+        <v>108.13</v>
       </c>
       <c r="C245" s="2">
-        <v>50.325</v>
+        <v>99.64</v>
       </c>
       <c r="D245" s="3">
-        <v>-7.751952194156248</v>
+        <v>-7.85</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5347,13 +5347,13 @@
         <v>248</v>
       </c>
       <c r="B246" s="2">
-        <v>90.59</v>
+        <v>181.26</v>
       </c>
       <c r="C246" s="2">
-        <v>83.51000000000001</v>
+        <v>167.02</v>
       </c>
       <c r="D246" s="3">
-        <v>-7.815432166905838</v>
+        <v>-7.86</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5361,13 +5361,13 @@
         <v>249</v>
       </c>
       <c r="B247" s="2">
-        <v>108.13</v>
+        <v>286.04</v>
       </c>
       <c r="C247" s="2">
-        <v>99.5258</v>
+        <v>263.5451</v>
       </c>
       <c r="D247" s="3">
-        <v>-7.957273652085445</v>
+        <v>-7.86</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5378,10 +5378,10 @@
         <v>363.55</v>
       </c>
       <c r="C248" s="2">
-        <v>334.28</v>
+        <v>334.685</v>
       </c>
       <c r="D248" s="3">
-        <v>-8.051162151010875</v>
+        <v>-7.94</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5392,10 +5392,10 @@
         <v>129.58</v>
       </c>
       <c r="C249" s="2">
-        <v>118.87</v>
+        <v>119.05</v>
       </c>
       <c r="D249" s="3">
-        <v>-8.265164377218712</v>
+        <v>-8.130000000000001</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5403,13 +5403,13 @@
         <v>252</v>
       </c>
       <c r="B250" s="2">
-        <v>187.85</v>
+        <v>269.19</v>
       </c>
       <c r="C250" s="2">
-        <v>172.23</v>
+        <v>246.62</v>
       </c>
       <c r="D250" s="3">
-        <v>-8.315145062549909</v>
+        <v>-8.380000000000001</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5417,13 +5417,13 @@
         <v>253</v>
       </c>
       <c r="B251" s="2">
-        <v>26.97</v>
+        <v>187.85</v>
       </c>
       <c r="C251" s="2">
-        <v>24.665</v>
+        <v>171.99</v>
       </c>
       <c r="D251" s="3">
-        <v>-8.546533185020392</v>
+        <v>-8.44</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5431,13 +5431,13 @@
         <v>254</v>
       </c>
       <c r="B252" s="2">
-        <v>340.72</v>
+        <v>26.97</v>
       </c>
       <c r="C252" s="2">
-        <v>311.09</v>
+        <v>24.635</v>
       </c>
       <c r="D252" s="3">
-        <v>-8.696290208969257</v>
+        <v>-8.66</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5445,13 +5445,13 @@
         <v>255</v>
       </c>
       <c r="B253" s="2">
-        <v>269.19</v>
+        <v>340.72</v>
       </c>
       <c r="C253" s="2">
-        <v>245.685</v>
+        <v>311.09</v>
       </c>
       <c r="D253" s="3">
-        <v>-8.731750807979493</v>
+        <v>-8.699999999999999</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5459,13 +5459,13 @@
         <v>256</v>
       </c>
       <c r="B254" s="2">
-        <v>74.64</v>
+        <v>254.08</v>
       </c>
       <c r="C254" s="2">
-        <v>67.92</v>
+        <v>231.53</v>
       </c>
       <c r="D254" s="3">
-        <v>-9.0032154340836</v>
+        <v>-8.880000000000001</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5473,13 +5473,13 @@
         <v>257</v>
       </c>
       <c r="B255" s="2">
-        <v>70</v>
+        <v>188.76</v>
       </c>
       <c r="C255" s="2">
-        <v>63.68</v>
+        <v>171.85</v>
       </c>
       <c r="D255" s="3">
-        <v>-9.028571428571428</v>
+        <v>-8.960000000000001</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5487,13 +5487,13 @@
         <v>258</v>
       </c>
       <c r="B256" s="2">
-        <v>254.08</v>
+        <v>150.81</v>
       </c>
       <c r="C256" s="2">
-        <v>231.08</v>
+        <v>137.24</v>
       </c>
       <c r="D256" s="3">
-        <v>-9.05226700251889</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5501,13 +5501,13 @@
         <v>259</v>
       </c>
       <c r="B257" s="2">
-        <v>150.81</v>
+        <v>70</v>
       </c>
       <c r="C257" s="2">
-        <v>136.96</v>
+        <v>63.69</v>
       </c>
       <c r="D257" s="3">
-        <v>-9.183741131224716</v>
+        <v>-9.01</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5515,13 +5515,13 @@
         <v>260</v>
       </c>
       <c r="B258" s="2">
-        <v>188.76</v>
+        <v>1090.94</v>
       </c>
       <c r="C258" s="2">
-        <v>171.39</v>
+        <v>991.515</v>
       </c>
       <c r="D258" s="3">
-        <v>-9.202161474888751</v>
+        <v>-9.109999999999999</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5532,10 +5532,10 @@
         <v>72</v>
       </c>
       <c r="C259" s="2">
-        <v>65.28</v>
+        <v>65.39</v>
       </c>
       <c r="D259" s="3">
-        <v>-9.333333333333332</v>
+        <v>-9.18</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5543,13 +5543,13 @@
         <v>262</v>
       </c>
       <c r="B260" s="2">
-        <v>1090.94</v>
+        <v>74.64</v>
       </c>
       <c r="C260" s="2">
-        <v>988.825</v>
+        <v>67.77</v>
       </c>
       <c r="D260" s="3">
-        <v>-9.360276458833667</v>
+        <v>-9.199999999999999</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5560,10 +5560,10 @@
         <v>609.1799999999999</v>
       </c>
       <c r="C261" s="2">
-        <v>550.85</v>
+        <v>551.975</v>
       </c>
       <c r="D261" s="3">
-        <v>-9.575166617420127</v>
+        <v>-9.390000000000001</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5574,10 +5574,10 @@
         <v>74.67</v>
       </c>
       <c r="C262" s="2">
-        <v>67.48999999999999</v>
+        <v>67.65000000000001</v>
       </c>
       <c r="D262" s="3">
-        <v>-9.615642158832204</v>
+        <v>-9.4</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5585,13 +5585,13 @@
         <v>265</v>
       </c>
       <c r="B263" s="2">
-        <v>73.19</v>
+        <v>621.74</v>
       </c>
       <c r="C263" s="2">
-        <v>66.11</v>
+        <v>562.23</v>
       </c>
       <c r="D263" s="3">
-        <v>-9.673452657466864</v>
+        <v>-9.57</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5599,13 +5599,13 @@
         <v>266</v>
       </c>
       <c r="B264" s="2">
-        <v>316.98</v>
+        <v>73.19</v>
       </c>
       <c r="C264" s="2">
-        <v>286.02</v>
+        <v>66.11</v>
       </c>
       <c r="D264" s="3">
-        <v>-9.767177739920511</v>
+        <v>-9.67</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5613,13 +5613,13 @@
         <v>267</v>
       </c>
       <c r="B265" s="2">
-        <v>59.58</v>
+        <v>41.89</v>
       </c>
       <c r="C265" s="2">
-        <v>53.7415</v>
+        <v>37.835</v>
       </c>
       <c r="D265" s="3">
-        <v>-9.799429338704257</v>
+        <v>-9.68</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5627,13 +5627,13 @@
         <v>268</v>
       </c>
       <c r="B266" s="2">
-        <v>621.74</v>
+        <v>451.41</v>
       </c>
       <c r="C266" s="2">
-        <v>560.41</v>
+        <v>407.66</v>
       </c>
       <c r="D266" s="3">
-        <v>-9.864251938109184</v>
+        <v>-9.69</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5641,13 +5641,13 @@
         <v>269</v>
       </c>
       <c r="B267" s="2">
-        <v>83.19</v>
+        <v>46.25</v>
       </c>
       <c r="C267" s="2">
-        <v>74.93000000000001</v>
+        <v>41.735</v>
       </c>
       <c r="D267" s="3">
-        <v>-9.929078014184386</v>
+        <v>-9.76</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5655,13 +5655,13 @@
         <v>270</v>
       </c>
       <c r="B268" s="2">
-        <v>451.41</v>
+        <v>59.58</v>
       </c>
       <c r="C268" s="2">
-        <v>406.55</v>
+        <v>53.763</v>
       </c>
       <c r="D268" s="3">
-        <v>-9.937750603664078</v>
+        <v>-9.76</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5669,13 +5669,13 @@
         <v>271</v>
       </c>
       <c r="B269" s="2">
-        <v>41.89</v>
+        <v>83.19</v>
       </c>
       <c r="C269" s="2">
-        <v>37.715</v>
+        <v>74.985</v>
       </c>
       <c r="D269" s="3">
-        <v>-9.966579135831934</v>
+        <v>-9.859999999999999</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5683,13 +5683,13 @@
         <v>272</v>
       </c>
       <c r="B270" s="2">
-        <v>46.25</v>
+        <v>316.98</v>
       </c>
       <c r="C270" s="2">
-        <v>41.545</v>
+        <v>285.66</v>
       </c>
       <c r="D270" s="3">
-        <v>-10.17297297297297</v>
+        <v>-9.880000000000001</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5700,10 +5700,10 @@
         <v>65.06999999999999</v>
       </c>
       <c r="C271" s="2">
-        <v>58.415</v>
+        <v>58.47</v>
       </c>
       <c r="D271" s="3">
-        <v>-10.22744736437682</v>
+        <v>-10.14</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5714,10 +5714,10 @@
         <v>119.84</v>
       </c>
       <c r="C272" s="2">
-        <v>107.51</v>
+        <v>107.635</v>
       </c>
       <c r="D272" s="3">
-        <v>-10.28871829105474</v>
+        <v>-10.18</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5725,13 +5725,13 @@
         <v>275</v>
       </c>
       <c r="B273" s="2">
-        <v>65.84</v>
+        <v>236.11</v>
       </c>
       <c r="C273" s="2">
-        <v>58.97</v>
+        <v>211.852506</v>
       </c>
       <c r="D273" s="3">
-        <v>-10.43438639125153</v>
+        <v>-10.27</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5739,13 +5739,13 @@
         <v>276</v>
       </c>
       <c r="B274" s="2">
-        <v>974.0700000000001</v>
+        <v>65.84</v>
       </c>
       <c r="C274" s="2">
-        <v>872.205</v>
+        <v>59.02</v>
       </c>
       <c r="D274" s="3">
-        <v>-10.45766731343743</v>
+        <v>-10.36</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5753,13 +5753,13 @@
         <v>277</v>
       </c>
       <c r="B275" s="2">
-        <v>236.11</v>
+        <v>974.0700000000001</v>
       </c>
       <c r="C275" s="2">
-        <v>211.41</v>
+        <v>872.46</v>
       </c>
       <c r="D275" s="3">
-        <v>-10.46122569988565</v>
+        <v>-10.43</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5770,10 +5770,10 @@
         <v>45.84</v>
       </c>
       <c r="C276" s="2">
-        <v>41.01</v>
+        <v>41.03</v>
       </c>
       <c r="D276" s="3">
-        <v>-10.5366492146597</v>
+        <v>-10.49</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5781,13 +5781,13 @@
         <v>279</v>
       </c>
       <c r="B277" s="2">
-        <v>573.25</v>
+        <v>123.17</v>
       </c>
       <c r="C277" s="2">
-        <v>512.0787</v>
+        <v>110.08</v>
       </c>
       <c r="D277" s="3">
-        <v>-10.67096380287832</v>
+        <v>-10.63</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5798,10 +5798,10 @@
         <v>226.35</v>
       </c>
       <c r="C278" s="2">
-        <v>201.63</v>
+        <v>201.85</v>
       </c>
       <c r="D278" s="3">
-        <v>-10.92113982770046</v>
+        <v>-10.82</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5809,13 +5809,13 @@
         <v>281</v>
       </c>
       <c r="B279" s="2">
-        <v>90.38</v>
+        <v>96.66</v>
       </c>
       <c r="C279" s="2">
-        <v>80.455</v>
+        <v>86.13500000000001</v>
       </c>
       <c r="D279" s="3">
-        <v>-10.98141181677362</v>
+        <v>-10.89</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5823,13 +5823,13 @@
         <v>282</v>
       </c>
       <c r="B280" s="2">
-        <v>123.17</v>
+        <v>90.38</v>
       </c>
       <c r="C280" s="2">
-        <v>109.58</v>
+        <v>80.455</v>
       </c>
       <c r="D280" s="3">
-        <v>-11.03353089226273</v>
+        <v>-10.98</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5837,13 +5837,13 @@
         <v>283</v>
       </c>
       <c r="B281" s="2">
-        <v>132.54</v>
+        <v>573.25</v>
       </c>
       <c r="C281" s="2">
-        <v>117.905</v>
+        <v>509.38</v>
       </c>
       <c r="D281" s="3">
-        <v>-11.04194960012071</v>
+        <v>-11.14</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5851,13 +5851,13 @@
         <v>284</v>
       </c>
       <c r="B282" s="2">
-        <v>142.6</v>
+        <v>132.54</v>
       </c>
       <c r="C282" s="2">
-        <v>126.466</v>
+        <v>117.73</v>
       </c>
       <c r="D282" s="3">
-        <v>-11.31416549789621</v>
+        <v>-11.17</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5865,13 +5865,13 @@
         <v>285</v>
       </c>
       <c r="B283" s="2">
-        <v>156.69</v>
+        <v>142.6</v>
       </c>
       <c r="C283" s="2">
-        <v>138.89</v>
+        <v>126.615</v>
       </c>
       <c r="D283" s="3">
-        <v>-11.36001021124514</v>
+        <v>-11.21</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5879,13 +5879,13 @@
         <v>286</v>
       </c>
       <c r="B284" s="2">
-        <v>96.66</v>
+        <v>156.69</v>
       </c>
       <c r="C284" s="2">
-        <v>85.66</v>
+        <v>138.83</v>
       </c>
       <c r="D284" s="3">
-        <v>-11.38009517897786</v>
+        <v>-11.4</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5893,13 +5893,13 @@
         <v>287</v>
       </c>
       <c r="B285" s="2">
-        <v>39.08</v>
+        <v>82.39</v>
       </c>
       <c r="C285" s="2">
-        <v>34.595</v>
+        <v>72.94</v>
       </c>
       <c r="D285" s="3">
-        <v>-11.47645854657113</v>
+        <v>-11.47</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5910,10 +5910,10 @@
         <v>143.09</v>
       </c>
       <c r="C286" s="2">
-        <v>126.465</v>
+        <v>126.62</v>
       </c>
       <c r="D286" s="3">
-        <v>-11.6185617443567</v>
+        <v>-11.51</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5921,13 +5921,13 @@
         <v>289</v>
       </c>
       <c r="B287" s="2">
-        <v>82.39</v>
+        <v>39.08</v>
       </c>
       <c r="C287" s="2">
-        <v>72.8</v>
+        <v>34.57</v>
       </c>
       <c r="D287" s="3">
-        <v>-11.63976210705183</v>
+        <v>-11.54</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5938,10 +5938,10 @@
         <v>100.19</v>
       </c>
       <c r="C288" s="2">
-        <v>88.31</v>
+        <v>88.42</v>
       </c>
       <c r="D288" s="3">
-        <v>-11.8574708054696</v>
+        <v>-11.75</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5949,13 +5949,13 @@
         <v>291</v>
       </c>
       <c r="B289" s="2">
-        <v>428.15</v>
+        <v>170.52</v>
       </c>
       <c r="C289" s="2">
-        <v>377.23</v>
+        <v>150.361926</v>
       </c>
       <c r="D289" s="3">
-        <v>-11.89302814434193</v>
+        <v>-11.82</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5963,13 +5963,13 @@
         <v>292</v>
       </c>
       <c r="B290" s="2">
-        <v>170.52</v>
+        <v>428.15</v>
       </c>
       <c r="C290" s="2">
-        <v>150.11</v>
+        <v>377.08</v>
       </c>
       <c r="D290" s="3">
-        <v>-11.96927046680741</v>
+        <v>-11.93</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5983,7 +5983,7 @@
         <v>271.23</v>
       </c>
       <c r="D291" s="3">
-        <v>-11.98689035272739</v>
+        <v>-11.99</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5994,10 +5994,10 @@
         <v>252.81</v>
       </c>
       <c r="C292" s="2">
-        <v>222.245</v>
+        <v>222.36</v>
       </c>
       <c r="D292" s="3">
-        <v>-12.09010719512677</v>
+        <v>-12.04</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -6005,13 +6005,13 @@
         <v>295</v>
       </c>
       <c r="B293" s="2">
-        <v>119.49</v>
+        <v>398.91</v>
       </c>
       <c r="C293" s="2">
-        <v>105.02</v>
+        <v>350.73</v>
       </c>
       <c r="D293" s="3">
-        <v>-12.1097999832622</v>
+        <v>-12.08</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -6019,13 +6019,13 @@
         <v>296</v>
       </c>
       <c r="B294" s="2">
-        <v>398.91</v>
+        <v>119.49</v>
       </c>
       <c r="C294" s="2">
-        <v>350.24</v>
+        <v>105.02</v>
       </c>
       <c r="D294" s="3">
-        <v>-12.20074703567221</v>
+        <v>-12.11</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -6036,10 +6036,10 @@
         <v>95.03</v>
       </c>
       <c r="C295" s="2">
-        <v>83.188</v>
+        <v>83.2615</v>
       </c>
       <c r="D295" s="3">
-        <v>-12.46132800168368</v>
+        <v>-12.38</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -6047,13 +6047,13 @@
         <v>298</v>
       </c>
       <c r="B296" s="2">
-        <v>290.46</v>
+        <v>20.37</v>
       </c>
       <c r="C296" s="2">
-        <v>253.7</v>
+        <v>17.84</v>
       </c>
       <c r="D296" s="3">
-        <v>-12.65578737175515</v>
+        <v>-12.42</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -6061,13 +6061,13 @@
         <v>299</v>
       </c>
       <c r="B297" s="2">
-        <v>20.37</v>
+        <v>15.38</v>
       </c>
       <c r="C297" s="2">
-        <v>17.79</v>
+        <v>13.455</v>
       </c>
       <c r="D297" s="3">
-        <v>-12.66568483063329</v>
+        <v>-12.52</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -6075,13 +6075,13 @@
         <v>300</v>
       </c>
       <c r="B298" s="2">
-        <v>15.38</v>
+        <v>186.98</v>
       </c>
       <c r="C298" s="2">
-        <v>13.39</v>
+        <v>163.17</v>
       </c>
       <c r="D298" s="3">
-        <v>-12.93888166449935</v>
+        <v>-12.73</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -6089,13 +6089,13 @@
         <v>301</v>
       </c>
       <c r="B299" s="2">
-        <v>74.97</v>
+        <v>290.46</v>
       </c>
       <c r="C299" s="2">
-        <v>65.25</v>
+        <v>253.25</v>
       </c>
       <c r="D299" s="3">
-        <v>-12.96518607442977</v>
+        <v>-12.81</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -6103,13 +6103,13 @@
         <v>302</v>
       </c>
       <c r="B300" s="2">
-        <v>186.98</v>
+        <v>74.97</v>
       </c>
       <c r="C300" s="2">
-        <v>162.71</v>
+        <v>65.33</v>
       </c>
       <c r="D300" s="3">
-        <v>-12.97999786073376</v>
+        <v>-12.86</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -6117,13 +6117,13 @@
         <v>303</v>
       </c>
       <c r="B301" s="2">
-        <v>104.05</v>
+        <v>570.21</v>
       </c>
       <c r="C301" s="2">
-        <v>90.37</v>
+        <v>496.48</v>
       </c>
       <c r="D301" s="3">
-        <v>-13.14752522825564</v>
+        <v>-12.93</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6131,13 +6131,13 @@
         <v>304</v>
       </c>
       <c r="B302" s="2">
-        <v>155.98</v>
+        <v>23.55</v>
       </c>
       <c r="C302" s="2">
-        <v>135.41</v>
+        <v>20.495</v>
       </c>
       <c r="D302" s="3">
-        <v>-13.18758815232722</v>
+        <v>-12.97</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -6145,13 +6145,13 @@
         <v>305</v>
       </c>
       <c r="B303" s="2">
-        <v>83.70999999999999</v>
+        <v>104.05</v>
       </c>
       <c r="C303" s="2">
-        <v>72.65000000000001</v>
+        <v>90.52</v>
       </c>
       <c r="D303" s="3">
-        <v>-13.21228049217535</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -6159,13 +6159,13 @@
         <v>306</v>
       </c>
       <c r="B304" s="2">
-        <v>570.21</v>
+        <v>336.34</v>
       </c>
       <c r="C304" s="2">
-        <v>494.56</v>
+        <v>292.485</v>
       </c>
       <c r="D304" s="3">
-        <v>-13.26704196699462</v>
+        <v>-13.04</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6173,13 +6173,13 @@
         <v>307</v>
       </c>
       <c r="B305" s="2">
-        <v>23.55</v>
+        <v>155.98</v>
       </c>
       <c r="C305" s="2">
-        <v>20.425</v>
+        <v>135.62</v>
       </c>
       <c r="D305" s="3">
-        <v>-13.26963906581741</v>
+        <v>-13.05</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6187,13 +6187,13 @@
         <v>308</v>
       </c>
       <c r="B306" s="2">
-        <v>336.34</v>
+        <v>83.70999999999999</v>
       </c>
       <c r="C306" s="2">
-        <v>291.51</v>
+        <v>72.73999999999999</v>
       </c>
       <c r="D306" s="3">
-        <v>-13.32877445442112</v>
+        <v>-13.1</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6204,10 +6204,10 @@
         <v>20.91</v>
       </c>
       <c r="C307" s="2">
-        <v>18.075</v>
+        <v>18.12</v>
       </c>
       <c r="D307" s="3">
-        <v>-13.55810616929699</v>
+        <v>-13.34</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6215,13 +6215,13 @@
         <v>310</v>
       </c>
       <c r="B308" s="2">
-        <v>202.75</v>
+        <v>11.07</v>
       </c>
       <c r="C308" s="2">
-        <v>175.19</v>
+        <v>9.585000000000001</v>
       </c>
       <c r="D308" s="3">
-        <v>-13.59309494451295</v>
+        <v>-13.41</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6229,13 +6229,13 @@
         <v>311</v>
       </c>
       <c r="B309" s="2">
-        <v>117.54</v>
+        <v>41.51</v>
       </c>
       <c r="C309" s="2">
-        <v>101.5525</v>
+        <v>35.94</v>
       </c>
       <c r="D309" s="3">
-        <v>-13.60175259486133</v>
+        <v>-13.42</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6243,13 +6243,13 @@
         <v>312</v>
       </c>
       <c r="B310" s="2">
-        <v>55.15</v>
+        <v>117.54</v>
       </c>
       <c r="C310" s="2">
-        <v>47.56</v>
+        <v>101.67</v>
       </c>
       <c r="D310" s="3">
-        <v>-13.76246600181323</v>
+        <v>-13.5</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6257,13 +6257,13 @@
         <v>313</v>
       </c>
       <c r="B311" s="2">
-        <v>11.07</v>
+        <v>202.75</v>
       </c>
       <c r="C311" s="2">
-        <v>9.545</v>
+        <v>175.14</v>
       </c>
       <c r="D311" s="3">
-        <v>-13.77597109304427</v>
+        <v>-13.62</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6271,13 +6271,13 @@
         <v>314</v>
       </c>
       <c r="B312" s="2">
-        <v>52.07</v>
+        <v>55.15</v>
       </c>
       <c r="C312" s="2">
-        <v>44.88</v>
+        <v>47.63</v>
       </c>
       <c r="D312" s="3">
-        <v>-13.80833493374303</v>
+        <v>-13.64</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6285,13 +6285,13 @@
         <v>315</v>
       </c>
       <c r="B313" s="2">
-        <v>41.51</v>
+        <v>329.17</v>
       </c>
       <c r="C313" s="2">
-        <v>35.74</v>
+        <v>283.91</v>
       </c>
       <c r="D313" s="3">
-        <v>-13.9002649963864</v>
+        <v>-13.75</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6299,13 +6299,13 @@
         <v>316</v>
       </c>
       <c r="B314" s="2">
-        <v>29.43</v>
+        <v>251.09</v>
       </c>
       <c r="C314" s="2">
-        <v>25.33</v>
+        <v>216.54</v>
       </c>
       <c r="D314" s="3">
-        <v>-13.93136255521577</v>
+        <v>-13.76</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6313,13 +6313,13 @@
         <v>317</v>
       </c>
       <c r="B315" s="2">
-        <v>251.09</v>
+        <v>89.78</v>
       </c>
       <c r="C315" s="2">
-        <v>216.105</v>
+        <v>77.41500000000001</v>
       </c>
       <c r="D315" s="3">
-        <v>-13.9332510255287</v>
+        <v>-13.77</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6327,13 +6327,13 @@
         <v>318</v>
       </c>
       <c r="B316" s="2">
-        <v>329.17</v>
+        <v>52.07</v>
       </c>
       <c r="C316" s="2">
-        <v>283.07</v>
+        <v>44.88</v>
       </c>
       <c r="D316" s="3">
-        <v>-14.00492146914969</v>
+        <v>-13.81</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6341,13 +6341,13 @@
         <v>319</v>
       </c>
       <c r="B317" s="2">
-        <v>89.78</v>
+        <v>914.33</v>
       </c>
       <c r="C317" s="2">
-        <v>77.16</v>
+        <v>786.47</v>
       </c>
       <c r="D317" s="3">
-        <v>-14.05658275785254</v>
+        <v>-13.98</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6355,13 +6355,13 @@
         <v>320</v>
       </c>
       <c r="B318" s="2">
-        <v>29.43</v>
+        <v>99.13</v>
       </c>
       <c r="C318" s="2">
-        <v>25.275</v>
+        <v>85.255</v>
       </c>
       <c r="D318" s="3">
-        <v>-14.11824668705403</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6369,13 +6369,13 @@
         <v>321</v>
       </c>
       <c r="B319" s="2">
-        <v>99.13</v>
+        <v>253.83</v>
       </c>
       <c r="C319" s="2">
-        <v>85.09</v>
+        <v>218.245</v>
       </c>
       <c r="D319" s="3">
-        <v>-14.16322001412286</v>
+        <v>-14.02</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6383,13 +6383,13 @@
         <v>322</v>
       </c>
       <c r="B320" s="2">
-        <v>914.33</v>
+        <v>29.43</v>
       </c>
       <c r="C320" s="2">
-        <v>784.41</v>
+        <v>25.285</v>
       </c>
       <c r="D320" s="3">
-        <v>-14.20931173646277</v>
+        <v>-14.08</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6397,13 +6397,13 @@
         <v>323</v>
       </c>
       <c r="B321" s="2">
-        <v>149.13</v>
+        <v>29.43</v>
       </c>
       <c r="C321" s="2">
-        <v>127.87</v>
+        <v>25.28</v>
       </c>
       <c r="D321" s="3">
-        <v>-14.25601823912023</v>
+        <v>-14.1</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6411,13 +6411,13 @@
         <v>324</v>
       </c>
       <c r="B322" s="2">
-        <v>253.83</v>
+        <v>102.9</v>
       </c>
       <c r="C322" s="2">
-        <v>217.375</v>
+        <v>88.37</v>
       </c>
       <c r="D322" s="3">
-        <v>-14.3619745498956</v>
+        <v>-14.12</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6425,13 +6425,13 @@
         <v>325</v>
       </c>
       <c r="B323" s="2">
-        <v>64.84</v>
+        <v>149.13</v>
       </c>
       <c r="C323" s="2">
-        <v>55.5</v>
+        <v>128</v>
       </c>
       <c r="D323" s="3">
-        <v>-14.40468846391117</v>
+        <v>-14.17</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6439,13 +6439,13 @@
         <v>326</v>
       </c>
       <c r="B324" s="2">
-        <v>102.9</v>
+        <v>64.84</v>
       </c>
       <c r="C324" s="2">
-        <v>88.065</v>
+        <v>55.61</v>
       </c>
       <c r="D324" s="3">
-        <v>-14.41690962099126</v>
+        <v>-14.24</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6456,10 +6456,10 @@
         <v>562.29</v>
       </c>
       <c r="C325" s="2">
-        <v>480.7111</v>
+        <v>481.94</v>
       </c>
       <c r="D325" s="3">
-        <v>-14.50833199950203</v>
+        <v>-14.29</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6470,10 +6470,10 @@
         <v>20.36</v>
       </c>
       <c r="C326" s="2">
-        <v>17.395</v>
+        <v>17.445</v>
       </c>
       <c r="D326" s="3">
-        <v>-14.56286836935167</v>
+        <v>-14.32</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6481,13 +6481,13 @@
         <v>329</v>
       </c>
       <c r="B327" s="2">
-        <v>238.13</v>
+        <v>42.63</v>
       </c>
       <c r="C327" s="2">
-        <v>203.09</v>
+        <v>36.41</v>
       </c>
       <c r="D327" s="3">
-        <v>-14.71465166085751</v>
+        <v>-14.59</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6498,10 +6498,10 @@
         <v>950.85</v>
       </c>
       <c r="C328" s="2">
-        <v>810.8200000000001</v>
+        <v>811.58</v>
       </c>
       <c r="D328" s="3">
-        <v>-14.72682336856496</v>
+        <v>-14.65</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6509,13 +6509,13 @@
         <v>331</v>
       </c>
       <c r="B329" s="2">
-        <v>392.57</v>
+        <v>231.41</v>
       </c>
       <c r="C329" s="2">
-        <v>334.39</v>
+        <v>197.48</v>
       </c>
       <c r="D329" s="3">
-        <v>-14.82028682782689</v>
+        <v>-14.66</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6523,13 +6523,13 @@
         <v>332</v>
       </c>
       <c r="B330" s="2">
-        <v>231.41</v>
+        <v>392.57</v>
       </c>
       <c r="C330" s="2">
-        <v>197.055</v>
+        <v>334.55</v>
       </c>
       <c r="D330" s="3">
-        <v>-14.84594442763925</v>
+        <v>-14.78</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6537,13 +6537,13 @@
         <v>333</v>
       </c>
       <c r="B331" s="2">
-        <v>42.63</v>
+        <v>269.86</v>
       </c>
       <c r="C331" s="2">
-        <v>36.27</v>
+        <v>229.82</v>
       </c>
       <c r="D331" s="3">
-        <v>-14.91907107670654</v>
+        <v>-14.84</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6551,13 +6551,13 @@
         <v>334</v>
       </c>
       <c r="B332" s="2">
-        <v>134.58</v>
+        <v>238.13</v>
       </c>
       <c r="C332" s="2">
-        <v>114.44</v>
+        <v>202.73</v>
       </c>
       <c r="D332" s="3">
-        <v>-14.96507653440334</v>
+        <v>-14.87</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6565,13 +6565,13 @@
         <v>335</v>
       </c>
       <c r="B333" s="2">
-        <v>11</v>
+        <v>22.68</v>
       </c>
       <c r="C333" s="2">
-        <v>9.35</v>
+        <v>19.305</v>
       </c>
       <c r="D333" s="3">
-        <v>-15</v>
+        <v>-14.88</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6579,13 +6579,13 @@
         <v>336</v>
       </c>
       <c r="B334" s="2">
-        <v>269.86</v>
+        <v>134.58</v>
       </c>
       <c r="C334" s="2">
-        <v>229.12</v>
+        <v>114.44</v>
       </c>
       <c r="D334" s="3">
-        <v>-15.09671681612688</v>
+        <v>-14.97</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6593,13 +6593,13 @@
         <v>337</v>
       </c>
       <c r="B335" s="2">
-        <v>22.68</v>
+        <v>11</v>
       </c>
       <c r="C335" s="2">
-        <v>19.205</v>
+        <v>9.35</v>
       </c>
       <c r="D335" s="3">
-        <v>-15.32186948853616</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6607,13 +6607,13 @@
         <v>338</v>
       </c>
       <c r="B336" s="2">
-        <v>262.12</v>
+        <v>130.42</v>
       </c>
       <c r="C336" s="2">
-        <v>221.78</v>
+        <v>110.63</v>
       </c>
       <c r="D336" s="3">
-        <v>-15.38989775675263</v>
+        <v>-15.17</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6621,13 +6621,13 @@
         <v>339</v>
       </c>
       <c r="B337" s="2">
-        <v>77.68000000000001</v>
+        <v>262.12</v>
       </c>
       <c r="C337" s="2">
-        <v>65.56</v>
+        <v>222.14</v>
       </c>
       <c r="D337" s="3">
-        <v>-15.60247167868178</v>
+        <v>-15.25</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6635,13 +6635,13 @@
         <v>340</v>
       </c>
       <c r="B338" s="2">
-        <v>130.42</v>
+        <v>22.29</v>
       </c>
       <c r="C338" s="2">
-        <v>110.055</v>
+        <v>18.885</v>
       </c>
       <c r="D338" s="3">
-        <v>-15.61493635945406</v>
+        <v>-15.28</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6649,13 +6649,13 @@
         <v>341</v>
       </c>
       <c r="B339" s="2">
-        <v>22.29</v>
+        <v>104.56</v>
       </c>
       <c r="C339" s="2">
-        <v>18.8</v>
+        <v>88.285</v>
       </c>
       <c r="D339" s="3">
-        <v>-15.65724540152534</v>
+        <v>-15.57</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6663,13 +6663,13 @@
         <v>342</v>
       </c>
       <c r="B340" s="2">
-        <v>68.3</v>
+        <v>84.38</v>
       </c>
       <c r="C340" s="2">
-        <v>57.54</v>
+        <v>71.23</v>
       </c>
       <c r="D340" s="3">
-        <v>-15.75402635431918</v>
+        <v>-15.58</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6677,13 +6677,13 @@
         <v>343</v>
       </c>
       <c r="B341" s="2">
-        <v>97.31</v>
+        <v>77.68000000000001</v>
       </c>
       <c r="C341" s="2">
-        <v>81.91</v>
+        <v>65.56</v>
       </c>
       <c r="D341" s="3">
-        <v>-15.82571164320214</v>
+        <v>-15.6</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6691,13 +6691,13 @@
         <v>344</v>
       </c>
       <c r="B342" s="2">
-        <v>104.56</v>
+        <v>68.3</v>
       </c>
       <c r="C342" s="2">
-        <v>88.005</v>
+        <v>57.58</v>
       </c>
       <c r="D342" s="3">
-        <v>-15.83301453710789</v>
+        <v>-15.7</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6705,13 +6705,13 @@
         <v>345</v>
       </c>
       <c r="B343" s="2">
-        <v>84.38</v>
+        <v>97.31</v>
       </c>
       <c r="C343" s="2">
-        <v>70.955</v>
+        <v>82.03</v>
       </c>
       <c r="D343" s="3">
-        <v>-15.91016828632377</v>
+        <v>-15.7</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6719,13 +6719,13 @@
         <v>346</v>
       </c>
       <c r="B344" s="2">
-        <v>168.71</v>
+        <v>192.57</v>
       </c>
       <c r="C344" s="2">
-        <v>141.83</v>
+        <v>161.95</v>
       </c>
       <c r="D344" s="3">
-        <v>-15.93266552071602</v>
+        <v>-15.9</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6733,13 +6733,13 @@
         <v>347</v>
       </c>
       <c r="B345" s="2">
-        <v>34.74</v>
+        <v>168.71</v>
       </c>
       <c r="C345" s="2">
-        <v>29.185</v>
+        <v>141.89</v>
       </c>
       <c r="D345" s="3">
-        <v>-15.99021301093841</v>
+        <v>-15.9</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6750,10 +6750,10 @@
         <v>166.4</v>
       </c>
       <c r="C346" s="2">
-        <v>139.42</v>
+        <v>139.85</v>
       </c>
       <c r="D346" s="3">
-        <v>-16.21394230769232</v>
+        <v>-15.96</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6761,13 +6761,13 @@
         <v>349</v>
       </c>
       <c r="B347" s="2">
-        <v>192.57</v>
+        <v>34.74</v>
       </c>
       <c r="C347" s="2">
-        <v>161.28</v>
+        <v>29.185</v>
       </c>
       <c r="D347" s="3">
-        <v>-16.24863685932388</v>
+        <v>-15.99</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6778,10 +6778,10 @@
         <v>108.12</v>
       </c>
       <c r="C348" s="2">
-        <v>90.44</v>
+        <v>90.72</v>
       </c>
       <c r="D348" s="3">
-        <v>-16.35220125786164</v>
+        <v>-16.09</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6789,13 +6789,13 @@
         <v>351</v>
       </c>
       <c r="B349" s="2">
-        <v>256.07</v>
+        <v>501.58</v>
       </c>
       <c r="C349" s="2">
-        <v>214.13</v>
+        <v>420.655</v>
       </c>
       <c r="D349" s="3">
-        <v>-16.3783340492834</v>
+        <v>-16.13</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6803,13 +6803,13 @@
         <v>352</v>
       </c>
       <c r="B350" s="2">
-        <v>140.52</v>
+        <v>17.04</v>
       </c>
       <c r="C350" s="2">
-        <v>117.5</v>
+        <v>14.275</v>
       </c>
       <c r="D350" s="3">
-        <v>-16.38200967833761</v>
+        <v>-16.23</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6817,13 +6817,13 @@
         <v>353</v>
       </c>
       <c r="B351" s="2">
-        <v>501.58</v>
+        <v>256.07</v>
       </c>
       <c r="C351" s="2">
-        <v>419.07</v>
+        <v>214.44</v>
       </c>
       <c r="D351" s="3">
-        <v>-16.45001794329917</v>
+        <v>-16.26</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6831,13 +6831,13 @@
         <v>354</v>
       </c>
       <c r="B352" s="2">
-        <v>225.86</v>
+        <v>140.52</v>
       </c>
       <c r="C352" s="2">
-        <v>188.36</v>
+        <v>117.66</v>
       </c>
       <c r="D352" s="3">
-        <v>-16.6032055255468</v>
+        <v>-16.27</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -6845,13 +6845,13 @@
         <v>355</v>
       </c>
       <c r="B353" s="2">
-        <v>17.04</v>
+        <v>152.36</v>
       </c>
       <c r="C353" s="2">
-        <v>14.195</v>
+        <v>127.485</v>
       </c>
       <c r="D353" s="3">
-        <v>-16.69600938967136</v>
+        <v>-16.33</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6859,13 +6859,13 @@
         <v>356</v>
       </c>
       <c r="B354" s="2">
-        <v>318.02</v>
+        <v>225.86</v>
       </c>
       <c r="C354" s="2">
-        <v>264.895</v>
+        <v>188.84</v>
       </c>
       <c r="D354" s="3">
-        <v>-16.7049242186026</v>
+        <v>-16.39</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6876,10 +6876,10 @@
         <v>33.27</v>
       </c>
       <c r="C355" s="2">
-        <v>27.7</v>
+        <v>27.805</v>
       </c>
       <c r="D355" s="3">
-        <v>-16.74180943793208</v>
+        <v>-16.43</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6887,13 +6887,13 @@
         <v>358</v>
       </c>
       <c r="B356" s="2">
-        <v>152.36</v>
+        <v>318.02</v>
       </c>
       <c r="C356" s="2">
-        <v>126.785</v>
+        <v>264.875</v>
       </c>
       <c r="D356" s="3">
-        <v>-16.78590181149909</v>
+        <v>-16.71</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6901,13 +6901,13 @@
         <v>359</v>
       </c>
       <c r="B357" s="2">
-        <v>56.56</v>
+        <v>304.15</v>
       </c>
       <c r="C357" s="2">
-        <v>46.9202</v>
+        <v>252.9</v>
       </c>
       <c r="D357" s="3">
-        <v>-17.04349363507779</v>
+        <v>-16.85</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6915,13 +6915,13 @@
         <v>360</v>
       </c>
       <c r="B358" s="2">
-        <v>892.7</v>
+        <v>41.74</v>
       </c>
       <c r="C358" s="2">
-        <v>740.33</v>
+        <v>34.67</v>
       </c>
       <c r="D358" s="3">
-        <v>-17.06844404615212</v>
+        <v>-16.94</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6929,13 +6929,13 @@
         <v>361</v>
       </c>
       <c r="B359" s="2">
-        <v>112.35</v>
+        <v>56.56</v>
       </c>
       <c r="C359" s="2">
-        <v>93.035</v>
+        <v>46.98</v>
       </c>
       <c r="D359" s="3">
-        <v>-17.19181130396084</v>
+        <v>-16.94</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -6946,10 +6946,10 @@
         <v>23.5</v>
       </c>
       <c r="C360" s="2">
-        <v>19.43</v>
+        <v>19.49</v>
       </c>
       <c r="D360" s="3">
-        <v>-17.31914893617022</v>
+        <v>-17.06</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6957,13 +6957,13 @@
         <v>363</v>
       </c>
       <c r="B361" s="2">
-        <v>171.79</v>
+        <v>892.7</v>
       </c>
       <c r="C361" s="2">
-        <v>142.03</v>
+        <v>740.27</v>
       </c>
       <c r="D361" s="3">
-        <v>-17.32347633738867</v>
+        <v>-17.08</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -6971,13 +6971,13 @@
         <v>364</v>
       </c>
       <c r="B362" s="2">
-        <v>41.74</v>
+        <v>112.35</v>
       </c>
       <c r="C362" s="2">
-        <v>34.505</v>
+        <v>93.15000000000001</v>
       </c>
       <c r="D362" s="3">
-        <v>-17.33349305222808</v>
+        <v>-17.09</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -6985,13 +6985,13 @@
         <v>365</v>
       </c>
       <c r="B363" s="2">
-        <v>304.15</v>
+        <v>366</v>
       </c>
       <c r="C363" s="2">
-        <v>251.36</v>
+        <v>303.095</v>
       </c>
       <c r="D363" s="3">
-        <v>-17.35656748314975</v>
+        <v>-17.19</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -6999,13 +6999,13 @@
         <v>366</v>
       </c>
       <c r="B364" s="2">
-        <v>366</v>
+        <v>171.79</v>
       </c>
       <c r="C364" s="2">
-        <v>302.4</v>
+        <v>142.04</v>
       </c>
       <c r="D364" s="3">
-        <v>-17.37704918032787</v>
+        <v>-17.32</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -7013,13 +7013,13 @@
         <v>367</v>
       </c>
       <c r="B365" s="2">
-        <v>81.43000000000001</v>
+        <v>76.87</v>
       </c>
       <c r="C365" s="2">
-        <v>67.19</v>
+        <v>63.54</v>
       </c>
       <c r="D365" s="3">
-        <v>-17.48741250153507</v>
+        <v>-17.34</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -7027,13 +7027,13 @@
         <v>368</v>
       </c>
       <c r="B366" s="2">
-        <v>180.01</v>
+        <v>132.4</v>
       </c>
       <c r="C366" s="2">
-        <v>148.503</v>
+        <v>109.36</v>
       </c>
       <c r="D366" s="3">
-        <v>-17.50291650463863</v>
+        <v>-17.4</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -7041,13 +7041,13 @@
         <v>369</v>
       </c>
       <c r="B367" s="2">
-        <v>76.87</v>
+        <v>180.01</v>
       </c>
       <c r="C367" s="2">
-        <v>63.335</v>
+        <v>148.695</v>
       </c>
       <c r="D367" s="3">
-        <v>-17.60764927800182</v>
+        <v>-17.4</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -7055,13 +7055,13 @@
         <v>370</v>
       </c>
       <c r="B368" s="2">
-        <v>132.4</v>
+        <v>81.43000000000001</v>
       </c>
       <c r="C368" s="2">
-        <v>109.02</v>
+        <v>67.205</v>
       </c>
       <c r="D368" s="3">
-        <v>-17.65861027190333</v>
+        <v>-17.47</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -7072,10 +7072,10 @@
         <v>185.82</v>
       </c>
       <c r="C369" s="2">
-        <v>152.825</v>
+        <v>153.18</v>
       </c>
       <c r="D369" s="3">
-        <v>-17.75643095468734</v>
+        <v>-17.57</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -7083,13 +7083,13 @@
         <v>372</v>
       </c>
       <c r="B370" s="2">
-        <v>269.89</v>
+        <v>181.01</v>
       </c>
       <c r="C370" s="2">
-        <v>221.32</v>
+        <v>148.98</v>
       </c>
       <c r="D370" s="3">
-        <v>-17.99622068250028</v>
+        <v>-17.7</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -7097,13 +7097,13 @@
         <v>373</v>
       </c>
       <c r="B371" s="2">
-        <v>207.16</v>
+        <v>269.89</v>
       </c>
       <c r="C371" s="2">
-        <v>169.835</v>
+        <v>221.42</v>
       </c>
       <c r="D371" s="3">
-        <v>-18.0174744159104</v>
+        <v>-17.96</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -7111,13 +7111,13 @@
         <v>374</v>
       </c>
       <c r="B372" s="2">
-        <v>202.82</v>
+        <v>207.16</v>
       </c>
       <c r="C372" s="2">
-        <v>166.19</v>
+        <v>169.87</v>
       </c>
       <c r="D372" s="3">
-        <v>-18.0603490780002</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -7125,13 +7125,13 @@
         <v>375</v>
       </c>
       <c r="B373" s="2">
-        <v>98.95999999999999</v>
+        <v>202.82</v>
       </c>
       <c r="C373" s="2">
-        <v>80.985</v>
+        <v>166.3</v>
       </c>
       <c r="D373" s="3">
-        <v>-18.16390460792239</v>
+        <v>-18.01</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -7139,13 +7139,13 @@
         <v>376</v>
       </c>
       <c r="B374" s="2">
-        <v>181.01</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="C374" s="2">
-        <v>148.115</v>
+        <v>81.06</v>
       </c>
       <c r="D374" s="3">
-        <v>-18.17302911441356</v>
+        <v>-18.09</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -7153,13 +7153,13 @@
         <v>377</v>
       </c>
       <c r="B375" s="2">
-        <v>59.44</v>
+        <v>41.66</v>
       </c>
       <c r="C375" s="2">
-        <v>48.56</v>
+        <v>34.09</v>
       </c>
       <c r="D375" s="3">
-        <v>-18.30417227456258</v>
+        <v>-18.17</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -7167,13 +7167,13 @@
         <v>378</v>
       </c>
       <c r="B376" s="2">
-        <v>41.66</v>
+        <v>59.44</v>
       </c>
       <c r="C376" s="2">
-        <v>34.015</v>
+        <v>48.525</v>
       </c>
       <c r="D376" s="3">
-        <v>-18.35093614978396</v>
+        <v>-18.36</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -7184,10 +7184,10 @@
         <v>116.33</v>
       </c>
       <c r="C377" s="2">
-        <v>94.59999999999999</v>
+        <v>94.79000000000001</v>
       </c>
       <c r="D377" s="3">
-        <v>-18.6796183271727</v>
+        <v>-18.52</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -7198,10 +7198,10 @@
         <v>267.64</v>
       </c>
       <c r="C378" s="2">
-        <v>217.63</v>
+        <v>217.935</v>
       </c>
       <c r="D378" s="3">
-        <v>-18.68554775070991</v>
+        <v>-18.57</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -7209,13 +7209,13 @@
         <v>381</v>
       </c>
       <c r="B379" s="2">
-        <v>73.72</v>
+        <v>31.8</v>
       </c>
       <c r="C379" s="2">
-        <v>59.85</v>
+        <v>25.885</v>
       </c>
       <c r="D379" s="3">
-        <v>-18.81443298969072</v>
+        <v>-18.6</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -7223,13 +7223,13 @@
         <v>382</v>
       </c>
       <c r="B380" s="2">
-        <v>31.8</v>
+        <v>73.72</v>
       </c>
       <c r="C380" s="2">
-        <v>25.81</v>
+        <v>59.92</v>
       </c>
       <c r="D380" s="3">
-        <v>-18.83647798742139</v>
+        <v>-18.72</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -7240,10 +7240,10 @@
         <v>123.46</v>
       </c>
       <c r="C381" s="2">
-        <v>99.825</v>
+        <v>100.01</v>
       </c>
       <c r="D381" s="3">
-        <v>-19.14385225984124</v>
+        <v>-18.99</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -7254,10 +7254,10 @@
         <v>43.22</v>
       </c>
       <c r="C382" s="2">
-        <v>34.765</v>
+        <v>34.86</v>
       </c>
       <c r="D382" s="3">
-        <v>-19.56270245256825</v>
+        <v>-19.34</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -7268,10 +7268,10 @@
         <v>360.8</v>
       </c>
       <c r="C383" s="2">
-        <v>290.175</v>
+        <v>290.305</v>
       </c>
       <c r="D383" s="3">
-        <v>-19.57455654101996</v>
+        <v>-19.54</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -7282,10 +7282,10 @@
         <v>47.74</v>
       </c>
       <c r="C384" s="2">
-        <v>38.151</v>
+        <v>38.375</v>
       </c>
       <c r="D384" s="3">
-        <v>-20.0858818600754</v>
+        <v>-19.62</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -7293,13 +7293,13 @@
         <v>387</v>
       </c>
       <c r="B385" s="2">
-        <v>47.07</v>
+        <v>170.27</v>
       </c>
       <c r="C385" s="2">
-        <v>37.58</v>
+        <v>135.97</v>
       </c>
       <c r="D385" s="3">
-        <v>-20.16146165285745</v>
+        <v>-20.14</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -7307,13 +7307,13 @@
         <v>388</v>
       </c>
       <c r="B386" s="2">
-        <v>29.8</v>
+        <v>47.07</v>
       </c>
       <c r="C386" s="2">
-        <v>23.74</v>
+        <v>37.59</v>
       </c>
       <c r="D386" s="3">
-        <v>-20.33557046979866</v>
+        <v>-20.14</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -7324,10 +7324,10 @@
         <v>554.38</v>
       </c>
       <c r="C387" s="2">
-        <v>440.8625</v>
+        <v>441.58</v>
       </c>
       <c r="D387" s="3">
-        <v>-20.4764782279303</v>
+        <v>-20.35</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -7335,13 +7335,13 @@
         <v>390</v>
       </c>
       <c r="B388" s="2">
-        <v>170.27</v>
+        <v>29.8</v>
       </c>
       <c r="C388" s="2">
-        <v>135.37</v>
+        <v>23.735</v>
       </c>
       <c r="D388" s="3">
-        <v>-20.49685793152053</v>
+        <v>-20.35</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -7352,10 +7352,10 @@
         <v>82.34999999999999</v>
       </c>
       <c r="C389" s="2">
-        <v>65.47</v>
+        <v>65.56</v>
       </c>
       <c r="D389" s="3">
-        <v>-20.49787492410443</v>
+        <v>-20.39</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -7366,10 +7366,10 @@
         <v>130.19</v>
       </c>
       <c r="C390" s="2">
-        <v>103.325</v>
+        <v>103.497</v>
       </c>
       <c r="D390" s="3">
-        <v>-20.63522543974191</v>
+        <v>-20.5</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -7380,10 +7380,10 @@
         <v>1292.77</v>
       </c>
       <c r="C391" s="2">
-        <v>1024.085</v>
+        <v>1026.37</v>
       </c>
       <c r="D391" s="3">
-        <v>-20.78366608136017</v>
+        <v>-20.61</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -7391,13 +7391,13 @@
         <v>394</v>
       </c>
       <c r="B392" s="2">
-        <v>66.42</v>
+        <v>513.36</v>
       </c>
       <c r="C392" s="2">
-        <v>52.4</v>
+        <v>405.02</v>
       </c>
       <c r="D392" s="3">
-        <v>-21.10809996988859</v>
+        <v>-21.1</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -7408,10 +7408,10 @@
         <v>344.49</v>
       </c>
       <c r="C393" s="2">
-        <v>271.42</v>
+        <v>271.81</v>
       </c>
       <c r="D393" s="3">
-        <v>-21.21106563325495</v>
+        <v>-21.1</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -7419,13 +7419,13 @@
         <v>396</v>
       </c>
       <c r="B394" s="2">
-        <v>513.36</v>
+        <v>66.42</v>
       </c>
       <c r="C394" s="2">
-        <v>404.423653</v>
+        <v>52.395</v>
       </c>
       <c r="D394" s="3">
-        <v>-21.22026394732741</v>
+        <v>-21.12</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -7436,10 +7436,10 @@
         <v>126.45</v>
       </c>
       <c r="C395" s="2">
-        <v>99.34999999999999</v>
+        <v>99.52</v>
       </c>
       <c r="D395" s="3">
-        <v>-21.43139580862001</v>
+        <v>-21.3</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -7447,13 +7447,13 @@
         <v>398</v>
       </c>
       <c r="B396" s="2">
-        <v>286.45</v>
+        <v>245.39</v>
       </c>
       <c r="C396" s="2">
-        <v>224.7</v>
+        <v>192.97</v>
       </c>
       <c r="D396" s="3">
-        <v>-21.55699074882179</v>
+        <v>-21.36</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -7461,13 +7461,13 @@
         <v>399</v>
       </c>
       <c r="B397" s="2">
-        <v>245.39</v>
+        <v>28.45</v>
       </c>
       <c r="C397" s="2">
-        <v>192.4869</v>
+        <v>22.35</v>
       </c>
       <c r="D397" s="3">
-        <v>-21.55878397652716</v>
+        <v>-21.44</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -7475,13 +7475,13 @@
         <v>400</v>
       </c>
       <c r="B398" s="2">
-        <v>28.45</v>
+        <v>35.97</v>
       </c>
       <c r="C398" s="2">
-        <v>22.295</v>
+        <v>28.2</v>
       </c>
       <c r="D398" s="3">
-        <v>-21.63444639718804</v>
+        <v>-21.6</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -7489,13 +7489,13 @@
         <v>401</v>
       </c>
       <c r="B399" s="2">
-        <v>191.52</v>
+        <v>130.88</v>
       </c>
       <c r="C399" s="2">
-        <v>150.02</v>
+        <v>102.595</v>
       </c>
       <c r="D399" s="3">
-        <v>-21.6687552213868</v>
+        <v>-21.61</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -7503,13 +7503,13 @@
         <v>402</v>
       </c>
       <c r="B400" s="2">
-        <v>130.88</v>
+        <v>286.45</v>
       </c>
       <c r="C400" s="2">
-        <v>102.47</v>
+        <v>224.5</v>
       </c>
       <c r="D400" s="3">
-        <v>-21.70690709046454</v>
+        <v>-21.63</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -7517,13 +7517,13 @@
         <v>403</v>
       </c>
       <c r="B401" s="2">
-        <v>35.97</v>
+        <v>167.5</v>
       </c>
       <c r="C401" s="2">
-        <v>28.16</v>
+        <v>131.05</v>
       </c>
       <c r="D401" s="3">
-        <v>-21.71253822629969</v>
+        <v>-21.76</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -7531,13 +7531,13 @@
         <v>404</v>
       </c>
       <c r="B402" s="2">
-        <v>167.5</v>
+        <v>264.41</v>
       </c>
       <c r="C402" s="2">
-        <v>130.895</v>
+        <v>206.57</v>
       </c>
       <c r="D402" s="3">
-        <v>-21.85373134328357</v>
+        <v>-21.88</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -7545,13 +7545,13 @@
         <v>405</v>
       </c>
       <c r="B403" s="2">
-        <v>141.47</v>
+        <v>191.52</v>
       </c>
       <c r="C403" s="2">
-        <v>110.18</v>
+        <v>149.58</v>
       </c>
       <c r="D403" s="3">
-        <v>-22.11776348342404</v>
+        <v>-21.9</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -7559,13 +7559,13 @@
         <v>406</v>
       </c>
       <c r="B404" s="2">
-        <v>264.41</v>
+        <v>37.21</v>
       </c>
       <c r="C404" s="2">
-        <v>205.7466</v>
+        <v>29.035</v>
       </c>
       <c r="D404" s="3">
-        <v>-22.18652849740933</v>
+        <v>-21.97</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -7576,10 +7576,10 @@
         <v>111.33</v>
       </c>
       <c r="C405" s="2">
-        <v>86.6144</v>
+        <v>86.815</v>
       </c>
       <c r="D405" s="3">
-        <v>-22.20030539836522</v>
+        <v>-22.02</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -7587,13 +7587,13 @@
         <v>408</v>
       </c>
       <c r="B406" s="2">
-        <v>37.21</v>
+        <v>141.47</v>
       </c>
       <c r="C406" s="2">
-        <v>28.94</v>
+        <v>110.18</v>
       </c>
       <c r="D406" s="3">
-        <v>-22.2252082773448</v>
+        <v>-22.12</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -7604,10 +7604,10 @@
         <v>187.01</v>
       </c>
       <c r="C407" s="2">
-        <v>145.31</v>
+        <v>144.79</v>
       </c>
       <c r="D407" s="3">
-        <v>-22.29827281963531</v>
+        <v>-22.58</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -7618,10 +7618,10 @@
         <v>89.72</v>
       </c>
       <c r="C408" s="2">
-        <v>69.22</v>
+        <v>69.395</v>
       </c>
       <c r="D408" s="3">
-        <v>-22.84886312973696</v>
+        <v>-22.65</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -7629,13 +7629,13 @@
         <v>411</v>
       </c>
       <c r="B409" s="2">
-        <v>17.58</v>
+        <v>239.38</v>
       </c>
       <c r="C409" s="2">
-        <v>13.56</v>
+        <v>185.17</v>
       </c>
       <c r="D409" s="3">
-        <v>-22.86689419795221</v>
+        <v>-22.65</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -7643,13 +7643,13 @@
         <v>412</v>
       </c>
       <c r="B410" s="2">
-        <v>239.38</v>
+        <v>19.46</v>
       </c>
       <c r="C410" s="2">
-        <v>184.3</v>
+        <v>15.045</v>
       </c>
       <c r="D410" s="3">
-        <v>-23.00944105606149</v>
+        <v>-22.69</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -7657,13 +7657,13 @@
         <v>413</v>
       </c>
       <c r="B411" s="2">
-        <v>28.25</v>
+        <v>17.58</v>
       </c>
       <c r="C411" s="2">
-        <v>21.745</v>
+        <v>13.56</v>
       </c>
       <c r="D411" s="3">
-        <v>-23.02654867256637</v>
+        <v>-22.87</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -7671,13 +7671,13 @@
         <v>414</v>
       </c>
       <c r="B412" s="2">
-        <v>444.52</v>
+        <v>128.17</v>
       </c>
       <c r="C412" s="2">
-        <v>341.92</v>
+        <v>98.735</v>
       </c>
       <c r="D412" s="3">
-        <v>-23.08107621704309</v>
+        <v>-22.97</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -7685,13 +7685,13 @@
         <v>415</v>
       </c>
       <c r="B413" s="2">
-        <v>19.46</v>
+        <v>28.25</v>
       </c>
       <c r="C413" s="2">
-        <v>14.935</v>
+        <v>21.745</v>
       </c>
       <c r="D413" s="3">
-        <v>-23.25282631038027</v>
+        <v>-23.03</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -7699,13 +7699,13 @@
         <v>416</v>
       </c>
       <c r="B414" s="2">
-        <v>128.17</v>
+        <v>444.52</v>
       </c>
       <c r="C414" s="2">
-        <v>98.285</v>
+        <v>342.05</v>
       </c>
       <c r="D414" s="3">
-        <v>-23.31668877272372</v>
+        <v>-23.05</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -7713,13 +7713,13 @@
         <v>417</v>
       </c>
       <c r="B415" s="2">
-        <v>9329.74</v>
+        <v>219.3</v>
       </c>
       <c r="C415" s="2">
-        <v>7150.05</v>
+        <v>168.37</v>
       </c>
       <c r="D415" s="3">
-        <v>-23.36281611277484</v>
+        <v>-23.22</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -7727,13 +7727,13 @@
         <v>418</v>
       </c>
       <c r="B416" s="2">
-        <v>219.3</v>
+        <v>9329.74</v>
       </c>
       <c r="C416" s="2">
-        <v>167.905</v>
+        <v>7150.05</v>
       </c>
       <c r="D416" s="3">
-        <v>-23.4359325125399</v>
+        <v>-23.36</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -7744,10 +7744,10 @@
         <v>230.17</v>
       </c>
       <c r="C417" s="2">
-        <v>175.3535</v>
+        <v>175.97</v>
       </c>
       <c r="D417" s="3">
-        <v>-23.81565799191901</v>
+        <v>-23.55</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -7755,13 +7755,13 @@
         <v>420</v>
       </c>
       <c r="B418" s="2">
-        <v>54.12</v>
+        <v>51.58</v>
       </c>
       <c r="C418" s="2">
-        <v>41.14</v>
+        <v>39.26</v>
       </c>
       <c r="D418" s="3">
-        <v>-23.98373983739837</v>
+        <v>-23.89</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -7769,13 +7769,13 @@
         <v>421</v>
       </c>
       <c r="B419" s="2">
-        <v>39.19</v>
+        <v>385.97</v>
       </c>
       <c r="C419" s="2">
-        <v>29.75</v>
+        <v>293.77</v>
       </c>
       <c r="D419" s="3">
-        <v>-24.08777749425873</v>
+        <v>-23.89</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -7783,13 +7783,13 @@
         <v>422</v>
       </c>
       <c r="B420" s="2">
-        <v>51.58</v>
+        <v>39.19</v>
       </c>
       <c r="C420" s="2">
-        <v>39.11</v>
+        <v>29.795</v>
       </c>
       <c r="D420" s="3">
-        <v>-24.17603722373013</v>
+        <v>-23.97</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -7797,13 +7797,13 @@
         <v>423</v>
       </c>
       <c r="B421" s="2">
-        <v>385.97</v>
+        <v>197.79</v>
       </c>
       <c r="C421" s="2">
-        <v>292.62</v>
+        <v>150.35</v>
       </c>
       <c r="D421" s="3">
-        <v>-24.18581755058684</v>
+        <v>-23.99</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -7811,13 +7811,13 @@
         <v>424</v>
       </c>
       <c r="B422" s="2">
-        <v>197.79</v>
+        <v>54.12</v>
       </c>
       <c r="C422" s="2">
-        <v>149.92</v>
+        <v>41.11</v>
       </c>
       <c r="D422" s="3">
-        <v>-24.20243692805501</v>
+        <v>-24.04</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -7828,10 +7828,10 @@
         <v>97.98999999999999</v>
       </c>
       <c r="C423" s="2">
-        <v>74.05</v>
+        <v>74.19</v>
       </c>
       <c r="D423" s="3">
-        <v>-24.43106439432595</v>
+        <v>-24.29</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -7842,10 +7842,10 @@
         <v>173.52</v>
       </c>
       <c r="C424" s="2">
-        <v>131.02</v>
+        <v>131.08</v>
       </c>
       <c r="D424" s="3">
-        <v>-24.49285384970032</v>
+        <v>-24.46</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -7856,10 +7856,10 @@
         <v>272.12</v>
       </c>
       <c r="C425" s="2">
-        <v>205.26</v>
+        <v>205.495</v>
       </c>
       <c r="D425" s="3">
-        <v>-24.57004262825225</v>
+        <v>-24.48</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -7870,10 +7870,10 @@
         <v>81.26000000000001</v>
       </c>
       <c r="C426" s="2">
-        <v>61.27</v>
+        <v>61.37</v>
       </c>
       <c r="D426" s="3">
-        <v>-24.6000492247108</v>
+        <v>-24.48</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -7884,10 +7884,10 @@
         <v>96.12</v>
       </c>
       <c r="C427" s="2">
-        <v>72.11920000000001</v>
+        <v>72.16</v>
       </c>
       <c r="D427" s="3">
-        <v>-24.96962130669996</v>
+        <v>-24.93</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -7898,10 +7898,10 @@
         <v>81.7</v>
       </c>
       <c r="C428" s="2">
-        <v>61.14</v>
+        <v>61.28</v>
       </c>
       <c r="D428" s="3">
-        <v>-25.16523867809058</v>
+        <v>-24.99</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -7909,13 +7909,13 @@
         <v>431</v>
       </c>
       <c r="B429" s="2">
-        <v>103.98</v>
+        <v>186.52</v>
       </c>
       <c r="C429" s="2">
-        <v>77.44</v>
+        <v>139.61</v>
       </c>
       <c r="D429" s="3">
-        <v>-25.52413925754953</v>
+        <v>-25.15</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -7926,10 +7926,10 @@
         <v>64.03</v>
       </c>
       <c r="C430" s="2">
-        <v>47.68</v>
+        <v>47.79</v>
       </c>
       <c r="D430" s="3">
-        <v>-25.53490551304076</v>
+        <v>-25.36</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -7937,13 +7937,13 @@
         <v>433</v>
       </c>
       <c r="B431" s="2">
-        <v>186.52</v>
+        <v>103.98</v>
       </c>
       <c r="C431" s="2">
-        <v>138.75</v>
+        <v>77.44</v>
       </c>
       <c r="D431" s="3">
-        <v>-25.61119450997212</v>
+        <v>-25.52</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -7951,13 +7951,13 @@
         <v>434</v>
       </c>
       <c r="B432" s="2">
-        <v>139.88</v>
+        <v>69.31</v>
       </c>
       <c r="C432" s="2">
-        <v>103.64</v>
+        <v>51.52</v>
       </c>
       <c r="D432" s="3">
-        <v>-25.90792107520732</v>
+        <v>-25.67</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -7965,13 +7965,13 @@
         <v>435</v>
       </c>
       <c r="B433" s="2">
-        <v>69.31</v>
+        <v>139.88</v>
       </c>
       <c r="C433" s="2">
-        <v>51.32</v>
+        <v>103.67</v>
       </c>
       <c r="D433" s="3">
-        <v>-25.95585052661954</v>
+        <v>-25.89</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -7982,10 +7982,10 @@
         <v>68.68000000000001</v>
       </c>
       <c r="C434" s="2">
-        <v>50.62</v>
+        <v>50.74</v>
       </c>
       <c r="D434" s="3">
-        <v>-26.29586488060572</v>
+        <v>-26.12</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -7996,10 +7996,10 @@
         <v>105.43</v>
       </c>
       <c r="C435" s="2">
-        <v>77.5442</v>
+        <v>77.58</v>
       </c>
       <c r="D435" s="3">
-        <v>-26.44958740396472</v>
+        <v>-26.42</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -8010,10 +8010,10 @@
         <v>101.97</v>
       </c>
       <c r="C436" s="2">
-        <v>74.91</v>
+        <v>74.95</v>
       </c>
       <c r="D436" s="3">
-        <v>-26.53721682847896</v>
+        <v>-26.5</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -8021,13 +8021,13 @@
         <v>439</v>
       </c>
       <c r="B437" s="2">
-        <v>98.52249999999999</v>
+        <v>86.98999999999999</v>
       </c>
       <c r="C437" s="2">
-        <v>72.2</v>
+        <v>63.93</v>
       </c>
       <c r="D437" s="3">
-        <v>-26.71724732929026</v>
+        <v>-26.51</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -8035,13 +8035,13 @@
         <v>440</v>
       </c>
       <c r="B438" s="2">
-        <v>86.98999999999999</v>
+        <v>248.1</v>
       </c>
       <c r="C438" s="2">
-        <v>63.735</v>
+        <v>181.65</v>
       </c>
       <c r="D438" s="3">
-        <v>-26.73295781124267</v>
+        <v>-26.78</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -8049,13 +8049,13 @@
         <v>441</v>
       </c>
       <c r="B439" s="2">
-        <v>141.54</v>
+        <v>812.5</v>
       </c>
       <c r="C439" s="2">
-        <v>103.7</v>
+        <v>594.83</v>
       </c>
       <c r="D439" s="3">
-        <v>-26.73449201639112</v>
+        <v>-26.79</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -8063,13 +8063,13 @@
         <v>442</v>
       </c>
       <c r="B440" s="2">
-        <v>248.1</v>
+        <v>98.52249999999999</v>
       </c>
       <c r="C440" s="2">
-        <v>181.19</v>
+        <v>72.13</v>
       </c>
       <c r="D440" s="3">
-        <v>-26.96896412736799</v>
+        <v>-26.79</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -8077,13 +8077,13 @@
         <v>443</v>
       </c>
       <c r="B441" s="2">
-        <v>812.5</v>
+        <v>141.54</v>
       </c>
       <c r="C441" s="2">
-        <v>592</v>
+        <v>103.58</v>
       </c>
       <c r="D441" s="3">
-        <v>-27.13846153846154</v>
+        <v>-26.82</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -8094,10 +8094,10 @@
         <v>17.63</v>
       </c>
       <c r="C442" s="2">
-        <v>12.83</v>
+        <v>12.86</v>
       </c>
       <c r="D442" s="3">
-        <v>-27.22631877481565</v>
+        <v>-27.06</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -8108,10 +8108,10 @@
         <v>46.6</v>
       </c>
       <c r="C443" s="2">
-        <v>33.78</v>
+        <v>33.915</v>
       </c>
       <c r="D443" s="3">
-        <v>-27.5107296137339</v>
+        <v>-27.22</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -8119,13 +8119,13 @@
         <v>446</v>
       </c>
       <c r="B444" s="2">
-        <v>483.72</v>
+        <v>100.52</v>
       </c>
       <c r="C444" s="2">
-        <v>349.9</v>
+        <v>72.655</v>
       </c>
       <c r="D444" s="3">
-        <v>-27.6647647399322</v>
+        <v>-27.72</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -8133,13 +8133,13 @@
         <v>447</v>
       </c>
       <c r="B445" s="2">
-        <v>100.52</v>
+        <v>483.72</v>
       </c>
       <c r="C445" s="2">
-        <v>72.7</v>
+        <v>349.55</v>
       </c>
       <c r="D445" s="3">
-        <v>-27.67608436132112</v>
+        <v>-27.74</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -8150,10 +8150,10 @@
         <v>107.82</v>
       </c>
       <c r="C446" s="2">
-        <v>77.84</v>
+        <v>77.87</v>
       </c>
       <c r="D446" s="3">
-        <v>-27.80560192914115</v>
+        <v>-27.78</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -8164,10 +8164,10 @@
         <v>83.3</v>
       </c>
       <c r="C447" s="2">
-        <v>59.925</v>
+        <v>60.115</v>
       </c>
       <c r="D447" s="3">
-        <v>-28.06122448979592</v>
+        <v>-27.83</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -8175,13 +8175,13 @@
         <v>450</v>
       </c>
       <c r="B448" s="2">
-        <v>40.36</v>
+        <v>174.83</v>
       </c>
       <c r="C448" s="2">
-        <v>28.99</v>
+        <v>125.78</v>
       </c>
       <c r="D448" s="3">
-        <v>-28.17145688800793</v>
+        <v>-28.06</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -8189,13 +8189,13 @@
         <v>451</v>
       </c>
       <c r="B449" s="2">
-        <v>184.38</v>
+        <v>40.36</v>
       </c>
       <c r="C449" s="2">
-        <v>132.05</v>
+        <v>29.03</v>
       </c>
       <c r="D449" s="3">
-        <v>-28.38160321076037</v>
+        <v>-28.07</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -8203,13 +8203,13 @@
         <v>452</v>
       </c>
       <c r="B450" s="2">
-        <v>174.83</v>
+        <v>184.38</v>
       </c>
       <c r="C450" s="2">
-        <v>125.19</v>
+        <v>132.435</v>
       </c>
       <c r="D450" s="3">
-        <v>-28.39329634502089</v>
+        <v>-28.17</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -8220,10 +8220,10 @@
         <v>206.93</v>
       </c>
       <c r="C451" s="2">
-        <v>147.44</v>
+        <v>147.9</v>
       </c>
       <c r="D451" s="3">
-        <v>-28.7488522688832</v>
+        <v>-28.53</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -8234,10 +8234,10 @@
         <v>101.45</v>
       </c>
       <c r="C452" s="2">
-        <v>71.97</v>
+        <v>72.075</v>
       </c>
       <c r="D452" s="3">
-        <v>-29.05864958107443</v>
+        <v>-28.96</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -8248,10 +8248,10 @@
         <v>23.16</v>
       </c>
       <c r="C453" s="2">
-        <v>16.405</v>
+        <v>16.395</v>
       </c>
       <c r="D453" s="3">
-        <v>-29.16666666666666</v>
+        <v>-29.21</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -8262,10 +8262,10 @@
         <v>76.92</v>
       </c>
       <c r="C454" s="2">
-        <v>54.4</v>
+        <v>54.42</v>
       </c>
       <c r="D454" s="3">
-        <v>-29.27717108684348</v>
+        <v>-29.25</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -8276,10 +8276,10 @@
         <v>132.47</v>
       </c>
       <c r="C455" s="2">
-        <v>93.68000000000001</v>
+        <v>93.63</v>
       </c>
       <c r="D455" s="3">
-        <v>-29.28210160791122</v>
+        <v>-29.32</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -8290,10 +8290,10 @@
         <v>88.42</v>
       </c>
       <c r="C456" s="2">
-        <v>62.295</v>
+        <v>62.39</v>
       </c>
       <c r="D456" s="3">
-        <v>-29.54648269622258</v>
+        <v>-29.44</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -8301,13 +8301,13 @@
         <v>459</v>
       </c>
       <c r="B457" s="2">
-        <v>103.01</v>
+        <v>47.27</v>
       </c>
       <c r="C457" s="2">
-        <v>72.27</v>
+        <v>33.305</v>
       </c>
       <c r="D457" s="3">
-        <v>-29.84176293563732</v>
+        <v>-29.54</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -8315,13 +8315,13 @@
         <v>460</v>
       </c>
       <c r="B458" s="2">
-        <v>47.27</v>
+        <v>80.83</v>
       </c>
       <c r="C458" s="2">
-        <v>33.16</v>
+        <v>56.82</v>
       </c>
       <c r="D458" s="3">
-        <v>-29.84979902686695</v>
+        <v>-29.7</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -8329,13 +8329,13 @@
         <v>461</v>
       </c>
       <c r="B459" s="2">
-        <v>80.83</v>
+        <v>214.63</v>
       </c>
       <c r="C459" s="2">
-        <v>56.6</v>
+        <v>150.73</v>
       </c>
       <c r="D459" s="3">
-        <v>-29.97649387603612</v>
+        <v>-29.77</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -8343,13 +8343,13 @@
         <v>462</v>
       </c>
       <c r="B460" s="2">
-        <v>214.63</v>
+        <v>103.01</v>
       </c>
       <c r="C460" s="2">
-        <v>150.23</v>
+        <v>72.31999999999999</v>
       </c>
       <c r="D460" s="3">
-        <v>-30.0051250990076</v>
+        <v>-29.79</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -8360,10 +8360,10 @@
         <v>243.16</v>
       </c>
       <c r="C461" s="2">
-        <v>169.22</v>
+        <v>170.32</v>
       </c>
       <c r="D461" s="3">
-        <v>-30.40796183582826</v>
+        <v>-29.96</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -8374,10 +8374,10 @@
         <v>113.02</v>
       </c>
       <c r="C462" s="2">
-        <v>78.63500000000001</v>
+        <v>79.04000000000001</v>
       </c>
       <c r="D462" s="3">
-        <v>-30.42381879313395</v>
+        <v>-30.07</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -8388,10 +8388,10 @@
         <v>137.43</v>
       </c>
       <c r="C463" s="2">
-        <v>95.38</v>
+        <v>95.7</v>
       </c>
       <c r="D463" s="3">
-        <v>-30.59739503747363</v>
+        <v>-30.36</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -8402,10 +8402,10 @@
         <v>78.84999999999999</v>
       </c>
       <c r="C464" s="2">
-        <v>54.61</v>
+        <v>54.805</v>
       </c>
       <c r="D464" s="3">
-        <v>-30.74191502853519</v>
+        <v>-30.49</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -8416,10 +8416,10 @@
         <v>48.37</v>
       </c>
       <c r="C465" s="2">
-        <v>33.5</v>
+        <v>33.56</v>
       </c>
       <c r="D465" s="3">
-        <v>-30.7421955757701</v>
+        <v>-30.62</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -8430,10 +8430,10 @@
         <v>217.01</v>
       </c>
       <c r="C466" s="2">
-        <v>149.93</v>
+        <v>150.22</v>
       </c>
       <c r="D466" s="3">
-        <v>-30.91101792544122</v>
+        <v>-30.78</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -8441,13 +8441,13 @@
         <v>469</v>
       </c>
       <c r="B467" s="2">
-        <v>307.92</v>
+        <v>119.41</v>
       </c>
       <c r="C467" s="2">
-        <v>211.09</v>
+        <v>81.97</v>
       </c>
       <c r="D467" s="3">
-        <v>-31.44647960509224</v>
+        <v>-31.35</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -8455,13 +8455,13 @@
         <v>470</v>
       </c>
       <c r="B468" s="2">
-        <v>122.55</v>
+        <v>307.92</v>
       </c>
       <c r="C468" s="2">
-        <v>83.81999999999999</v>
+        <v>211.38</v>
       </c>
       <c r="D468" s="3">
-        <v>-31.60342717258262</v>
+        <v>-31.35</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -8469,13 +8469,13 @@
         <v>471</v>
       </c>
       <c r="B469" s="2">
-        <v>119.41</v>
+        <v>122.55</v>
       </c>
       <c r="C469" s="2">
-        <v>81.66</v>
+        <v>84.01000000000001</v>
       </c>
       <c r="D469" s="3">
-        <v>-31.61376769114815</v>
+        <v>-31.45</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -8486,10 +8486,10 @@
         <v>52.4943310657596</v>
       </c>
       <c r="C470" s="2">
-        <v>35.865</v>
+        <v>35.93</v>
       </c>
       <c r="D470" s="3">
-        <v>-31.67833693304531</v>
+        <v>-31.55</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -8500,10 +8500,10 @@
         <v>83.91</v>
       </c>
       <c r="C471" s="2">
-        <v>57.03</v>
+        <v>57.125</v>
       </c>
       <c r="D471" s="3">
-        <v>-32.0343224883804</v>
+        <v>-31.92</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -8514,10 +8514,10 @@
         <v>164.4</v>
       </c>
       <c r="C472" s="2">
-        <v>110.7</v>
+        <v>110.905</v>
       </c>
       <c r="D472" s="3">
-        <v>-32.66423357664234</v>
+        <v>-32.54</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -8528,10 +8528,10 @@
         <v>179.24</v>
       </c>
       <c r="C473" s="2">
-        <v>118.39</v>
+        <v>118.79</v>
       </c>
       <c r="D473" s="3">
-        <v>-33.94889533586253</v>
+        <v>-33.73</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -8542,10 +8542,10 @@
         <v>11.44</v>
       </c>
       <c r="C474" s="2">
-        <v>7.545</v>
+        <v>7.575</v>
       </c>
       <c r="D474" s="3">
-        <v>-34.0472027972028</v>
+        <v>-33.78</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -8553,13 +8553,13 @@
         <v>477</v>
       </c>
       <c r="B475" s="2">
-        <v>87.5</v>
+        <v>127.7</v>
       </c>
       <c r="C475" s="2">
-        <v>56.99</v>
+        <v>83.67</v>
       </c>
       <c r="D475" s="3">
-        <v>-34.86857142857143</v>
+        <v>-34.48</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -8567,13 +8567,13 @@
         <v>478</v>
       </c>
       <c r="B476" s="2">
-        <v>127.7</v>
+        <v>92.68000000000001</v>
       </c>
       <c r="C476" s="2">
-        <v>83.09999999999999</v>
+        <v>60.34</v>
       </c>
       <c r="D476" s="3">
-        <v>-34.92560689115114</v>
+        <v>-34.89</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -8581,13 +8581,13 @@
         <v>479</v>
       </c>
       <c r="B477" s="2">
-        <v>92.68000000000001</v>
+        <v>87.5</v>
       </c>
       <c r="C477" s="2">
-        <v>60.265</v>
+        <v>56.94</v>
       </c>
       <c r="D477" s="3">
-        <v>-34.97518342684506</v>
+        <v>-34.93</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -8598,10 +8598,10 @@
         <v>107.91</v>
       </c>
       <c r="C478" s="2">
-        <v>69.72499999999999</v>
+        <v>70.05500000000001</v>
       </c>
       <c r="D478" s="3">
-        <v>-35.38596978963952</v>
+        <v>-35.08</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -8612,10 +8612,10 @@
         <v>181.69</v>
       </c>
       <c r="C479" s="2">
-        <v>117.17</v>
+        <v>117.4</v>
       </c>
       <c r="D479" s="3">
-        <v>-35.51103527987231</v>
+        <v>-35.38</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -8626,10 +8626,10 @@
         <v>111.75</v>
       </c>
       <c r="C480" s="2">
-        <v>71.56999999999999</v>
+        <v>71.83499999999999</v>
       </c>
       <c r="D480" s="3">
-        <v>-35.95525727069352</v>
+        <v>-35.72</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -8640,10 +8640,10 @@
         <v>36.88</v>
       </c>
       <c r="C481" s="2">
-        <v>23.555</v>
+        <v>23.605</v>
       </c>
       <c r="D481" s="3">
-        <v>-36.13069414316703</v>
+        <v>-36</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -8654,10 +8654,10 @@
         <v>180.8</v>
       </c>
       <c r="C482" s="2">
-        <v>115.37</v>
+        <v>115.285</v>
       </c>
       <c r="D482" s="3">
-        <v>-36.1891592920354</v>
+        <v>-36.24</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -8668,10 +8668,10 @@
         <v>24.82</v>
       </c>
       <c r="C483" s="2">
-        <v>15.67</v>
+        <v>15.735</v>
       </c>
       <c r="D483" s="3">
-        <v>-36.86543110394843</v>
+        <v>-36.6</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -8682,10 +8682,10 @@
         <v>198.47</v>
       </c>
       <c r="C484" s="2">
-        <v>125.2</v>
+        <v>125.39</v>
       </c>
       <c r="D484" s="3">
-        <v>-36.91741824960951</v>
+        <v>-36.82</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -8696,10 +8696,10 @@
         <v>83.83</v>
       </c>
       <c r="C485" s="2">
-        <v>52.845</v>
+        <v>52.92</v>
       </c>
       <c r="D485" s="3">
-        <v>-36.96170821901467</v>
+        <v>-36.87</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -8710,10 +8710,10 @@
         <v>360.09</v>
       </c>
       <c r="C486" s="2">
-        <v>225.305</v>
+        <v>226.1</v>
       </c>
       <c r="D486" s="3">
-        <v>-37.43092004776583</v>
+        <v>-37.21</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -8724,10 +8724,10 @@
         <v>168.11</v>
       </c>
       <c r="C487" s="2">
-        <v>103.34</v>
+        <v>103.655</v>
       </c>
       <c r="D487" s="3">
-        <v>-38.52834453631552</v>
+        <v>-38.34</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -8738,10 +8738,10 @@
         <v>87.25</v>
       </c>
       <c r="C488" s="2">
-        <v>53.53</v>
+        <v>53.52</v>
       </c>
       <c r="D488" s="3">
-        <v>-38.64756446991404</v>
+        <v>-38.66</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -8752,10 +8752,10 @@
         <v>52.76</v>
       </c>
       <c r="C489" s="2">
-        <v>32.345</v>
+        <v>32.365</v>
       </c>
       <c r="D489" s="3">
-        <v>-38.69408642911296</v>
+        <v>-38.66</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -8769,7 +8769,7 @@
         <v>90.94</v>
       </c>
       <c r="D490" s="3">
-        <v>-39.83858163535327</v>
+        <v>-39.84</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -8780,10 +8780,10 @@
         <v>16.96</v>
       </c>
       <c r="C491" s="2">
-        <v>10.175</v>
+        <v>10.1712</v>
       </c>
       <c r="D491" s="3">
-        <v>-40.0058962264151</v>
+        <v>-40.03</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -8794,10 +8794,10 @@
         <v>173.28</v>
       </c>
       <c r="C492" s="2">
-        <v>103.71</v>
+        <v>103.7</v>
       </c>
       <c r="D492" s="3">
-        <v>-40.14889196675901</v>
+        <v>-40.15</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -8808,10 +8808,10 @@
         <v>933.02</v>
       </c>
       <c r="C493" s="2">
-        <v>553.08</v>
+        <v>553.6900000000001</v>
       </c>
       <c r="D493" s="3">
-        <v>-40.72152794152322</v>
+        <v>-40.66</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -8822,10 +8822,10 @@
         <v>95.2</v>
       </c>
       <c r="C494" s="2">
-        <v>56.12</v>
+        <v>56.42</v>
       </c>
       <c r="D494" s="3">
-        <v>-41.05042016806723</v>
+        <v>-40.74</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -8836,10 +8836,10 @@
         <v>901.29</v>
       </c>
       <c r="C495" s="2">
-        <v>522.99</v>
+        <v>526.01</v>
       </c>
       <c r="D495" s="3">
-        <v>-41.97317178710514</v>
+        <v>-41.64</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -8853,7 +8853,7 @@
         <v>104.91</v>
       </c>
       <c r="D496" s="3">
-        <v>-42.39512409400395</v>
+        <v>-42.4</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -8864,10 +8864,10 @@
         <v>101.98</v>
       </c>
       <c r="C497" s="2">
-        <v>58.07</v>
+        <v>58.208</v>
       </c>
       <c r="D497" s="3">
-        <v>-43.05746224749952</v>
+        <v>-42.92</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -8878,10 +8878,10 @@
         <v>93.51000000000001</v>
       </c>
       <c r="C498" s="2">
-        <v>53.095</v>
+        <v>53.115</v>
       </c>
       <c r="D498" s="3">
-        <v>-43.21997647310449</v>
+        <v>-43.2</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -8892,10 +8892,10 @@
         <v>156.23</v>
       </c>
       <c r="C499" s="2">
-        <v>88.31999999999999</v>
+        <v>88.63</v>
       </c>
       <c r="D499" s="3">
-        <v>-43.46796389937912</v>
+        <v>-43.27</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -8906,10 +8906,10 @@
         <v>44.18</v>
       </c>
       <c r="C500" s="2">
-        <v>24.92</v>
+        <v>25.015</v>
       </c>
       <c r="D500" s="3">
-        <v>-43.59438660027161</v>
+        <v>-43.38</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -8920,10 +8920,10 @@
         <v>49.7</v>
       </c>
       <c r="C501" s="2">
-        <v>27.855</v>
+        <v>27.96</v>
       </c>
       <c r="D501" s="3">
-        <v>-43.95372233400403</v>
+        <v>-43.74</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -8937,7 +8937,7 @@
         <v>37.74</v>
       </c>
       <c r="D502" s="3">
-        <v>-50.53086905230043</v>
+        <v>-50.53</v>
       </c>
     </row>
     <row r="503" spans="1:4">
@@ -8948,10 +8948,10 @@
         <v>71.25</v>
       </c>
       <c r="C503" s="2">
-        <v>34.5</v>
+        <v>34.715</v>
       </c>
       <c r="D503" s="3">
-        <v>-51.57894736842105</v>
+        <v>-51.28</v>
       </c>
     </row>
     <row r="504" spans="1:4">
@@ -8962,10 +8962,10 @@
         <v>53.09</v>
       </c>
       <c r="C504" s="2">
-        <v>25.45</v>
+        <v>25.6</v>
       </c>
       <c r="D504" s="3">
-        <v>-52.06253531738557</v>
+        <v>-51.78</v>
       </c>
     </row>
   </sheetData>

--- a/total_data.xlsx
+++ b/total_data.xlsx
@@ -1543,7 +1543,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="$0.00"/>
-    <numFmt numFmtId="165" formatCode="0%"/>
+    <numFmt numFmtId="165" formatCode="0.00%"/>
   </numFmts>
   <fonts count="2">
     <font>

--- a/total_data.xlsx
+++ b/total_data.xlsx
@@ -1543,7 +1543,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="$0.00"/>
-    <numFmt numFmtId="165" formatCode="0.00%"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="2">
     <font>

--- a/total_data.xlsx
+++ b/total_data.xlsx
@@ -1543,7 +1543,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="$0.00"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.00%"/>
   </numFmts>
   <fonts count="2">
     <font>

--- a/total_data.xlsx
+++ b/total_data.xlsx
@@ -1543,7 +1543,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="$0.00"/>
-    <numFmt numFmtId="165" formatCode="0.00%"/>
+    <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
   <fonts count="2">
     <font>
